--- a/Copia de 2019-02-28_Training sample pour l'ordonnancement_Cellule Robotisée_Rev1.xlsx
+++ b/Copia de 2019-02-28_Training sample pour l'ordonnancement_Cellule Robotisée_Rev1.xlsx
@@ -1,13 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pasantia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03F1960D-F164-4812-A37A-38CBD2D9AF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="données" sheetId="1" r:id="rId4"/>
+    <sheet name="données" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">données!$A$1:$A$997</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="7mlTG4r7zvOjd4Zx6a17BvuQwdHAezfyU9fLYG2AaCQ="/>
     </ext>
@@ -16,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t># pièce</t>
   </si>
@@ -94,12 +115,6 @@
   </si>
   <si>
     <t>40815</t>
-  </si>
-  <si>
-    <t>19816</t>
-  </si>
-  <si>
-    <t>92317</t>
   </si>
   <si>
     <t>61318</t>
@@ -291,20 +306,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -315,47 +331,54 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -545,30 +568,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L996"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.14"/>
-    <col customWidth="1" min="2" max="2" width="16.57"/>
-    <col customWidth="1" min="3" max="3" width="16.71"/>
-    <col customWidth="1" min="4" max="4" width="16.86"/>
-    <col customWidth="1" min="5" max="5" width="4.71"/>
-    <col customWidth="1" min="6" max="6" width="15.86"/>
-    <col customWidth="1" min="7" max="7" width="15.71"/>
-    <col customWidth="1" min="8" max="21" width="10.71"/>
+    <col min="1" max="1" width="15.08984375" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" customWidth="1"/>
+    <col min="5" max="5" width="4.7265625" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+    <col min="8" max="21" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,143 +628,143 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="4">
-        <v>6.317955</v>
+        <v>6.3179550000000004</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="3"/>
       <c r="F2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="5">
-        <f t="shared" ref="H2:H80" si="1">B2+C2</f>
-        <v>6.317955</v>
+        <f t="shared" ref="H2:H78" si="0">B2+C2</f>
+        <v>6.3179550000000004</v>
       </c>
       <c r="I2" s="6">
-        <f t="shared" ref="I2:I80" si="2">IF(AND(NOT(ISBLANK(F2)),NOT(ISBLANK(G2))),2,1)</f>
+        <f t="shared" ref="I2:I78" si="1">IF(AND(NOT(ISBLANK(F2)),NOT(ISBLANK(G2))),2,1)</f>
         <v>1</v>
       </c>
       <c r="J2" s="6">
-        <f t="shared" ref="J2:J80" si="3">IF(ISBLANK(D2),0,1)</f>
+        <f t="shared" ref="J2:J78" si="2">IF(ISBLANK(D2),0,1)</f>
         <v>0</v>
       </c>
       <c r="K2" s="6">
-        <f t="shared" ref="K2:K80" si="4">IF(ISBLANK(G2),F2,G2)</f>
+        <f t="shared" ref="K2:K78" si="3">IF(ISBLANK(G2),F2,G2)</f>
         <v>1</v>
       </c>
       <c r="L2" s="6">
-        <f t="shared" ref="L2:L80" si="5">IF(ISBLANK(G2),2,F2)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
+        <f t="shared" ref="L2:L78" si="4">IF(ISBLANK(G2),2,F2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="4">
-        <v>6.3156</v>
+        <v>6.3155999999999999</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="3"/>
       <c r="F3" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="5">
-        <f t="shared" si="1"/>
-        <v>6.3156</v>
+        <f t="shared" si="0"/>
+        <v>6.3155999999999999</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L3" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4">
-        <v>6.3156</v>
+        <v>6.3155999999999999</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="3"/>
       <c r="F4" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="5">
-        <f t="shared" si="1"/>
-        <v>6.3156</v>
+        <f t="shared" si="0"/>
+        <v>6.3155999999999999</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J4" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K4" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L4" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="4">
-        <v>6.3156</v>
+        <v>6.3155999999999999</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="3"/>
       <c r="F5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="5">
-        <f t="shared" si="1"/>
-        <v>6.3156</v>
+        <f t="shared" si="0"/>
+        <v>6.3155999999999999</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J5" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L5" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -748,68 +773,68 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.566335</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L6" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="4">
-        <v>5.175845</v>
+        <v>5.1758449999999998</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="3"/>
       <c r="F7" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="5">
-        <f t="shared" si="1"/>
-        <v>5.175845</v>
+        <f t="shared" si="0"/>
+        <v>5.1758449999999998</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L7" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -819,141 +844,141 @@
       </c>
       <c r="D8" s="3"/>
       <c r="F8" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.16215</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="4">
-        <v>16.1256</v>
+        <v>16.125599999999999</v>
       </c>
       <c r="C9" s="4">
-        <v>4.55664</v>
+        <v>4.5566399999999998</v>
       </c>
       <c r="D9" s="3"/>
       <c r="F9" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20.68224</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L9" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="4">
-        <v>16.1256</v>
+        <v>16.125599999999999</v>
       </c>
       <c r="C10" s="4">
-        <v>4.55664</v>
+        <v>4.5566399999999998</v>
       </c>
       <c r="D10" s="3"/>
       <c r="F10" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20.68224</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L10" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="4">
-        <v>8.7338</v>
+        <v>8.7338000000000005</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="F11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="5">
-        <f t="shared" si="1"/>
-        <v>8.7338</v>
+        <f t="shared" si="0"/>
+        <v>8.7338000000000005</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -963,31 +988,31 @@
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
       <c r="F12" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18.6541</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K12" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -997,31 +1022,31 @@
       </c>
       <c r="D13" s="3"/>
       <c r="F13" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="5">
-        <f t="shared" si="1"/>
-        <v>3.8271</v>
+        <f t="shared" si="0"/>
+        <v>3.8270999999999997</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
@@ -1031,6068 +1056,5987 @@
       </c>
       <c r="D14" s="3"/>
       <c r="F14" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="5">
-        <f t="shared" si="1"/>
-        <v>3.8271</v>
+        <f t="shared" si="0"/>
+        <v>3.8270999999999997</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L14" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
-        <v>9.13414</v>
+        <v>9.1341400000000004</v>
       </c>
       <c r="D15" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="5">
-        <f t="shared" si="1"/>
-        <v>9.13414</v>
+        <f t="shared" si="0"/>
+        <v>9.1341400000000004</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4">
-        <v>9.13414</v>
+        <v>9.1341400000000004</v>
       </c>
       <c r="D16" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="5">
-        <f t="shared" si="1"/>
-        <v>9.13414</v>
+        <f t="shared" si="0"/>
+        <v>9.1341400000000004</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="4">
-        <v>5.1623</v>
-      </c>
-      <c r="C17" s="4">
-        <v>3.1675</v>
-      </c>
+        <v>33.323399999999999</v>
+      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1.0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G17" s="3"/>
       <c r="H17" s="5">
-        <f t="shared" si="1"/>
-        <v>8.3298</v>
+        <f t="shared" si="0"/>
+        <v>33.323399999999999</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="4">
-        <v>5.1623</v>
-      </c>
+      <c r="B18" s="4"/>
       <c r="C18" s="4">
-        <v>3.1675</v>
+        <v>9.2915700000000001</v>
       </c>
       <c r="D18" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1.0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G18" s="3"/>
       <c r="H18" s="5">
-        <f t="shared" si="1"/>
-        <v>8.3298</v>
+        <f t="shared" si="0"/>
+        <v>9.2915700000000001</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="4">
-        <v>33.3234</v>
-      </c>
-      <c r="C19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4">
+        <v>8.1133500000000005</v>
+      </c>
       <c r="D19" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="3">
-        <v>1.0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="5">
-        <f t="shared" si="1"/>
-        <v>33.3234</v>
+        <f t="shared" si="0"/>
+        <v>8.1133500000000005</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4">
-        <v>9.29157</v>
-      </c>
+      <c r="B20" s="4">
+        <v>8.2979000000000003</v>
+      </c>
+      <c r="C20" s="4"/>
       <c r="D20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
-        <v>2.0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="5">
-        <f t="shared" si="1"/>
-        <v>9.29157</v>
+        <f t="shared" si="0"/>
+        <v>8.2979000000000003</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
-        <v>8.11335</v>
+        <v>3.3992800000000001</v>
       </c>
       <c r="D21" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="5">
-        <f t="shared" si="1"/>
-        <v>8.11335</v>
+        <f t="shared" si="0"/>
+        <v>3.3992800000000001</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="4">
-        <v>8.2979</v>
+        <v>8.2979000000000003</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="5">
-        <f t="shared" si="1"/>
-        <v>8.2979</v>
+        <f t="shared" si="0"/>
+        <v>8.2979000000000003</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="4">
+        <v>8.32</v>
+      </c>
       <c r="C23" s="4">
-        <v>3.39928</v>
+        <v>8.599219999999999</v>
       </c>
       <c r="D23" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="G23" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
       <c r="H23" s="5">
-        <f t="shared" si="1"/>
-        <v>3.39928</v>
+        <f t="shared" si="0"/>
+        <v>16.919219999999999</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="4">
-        <v>8.2979</v>
-      </c>
-      <c r="C24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4">
+        <v>5.21835</v>
+      </c>
       <c r="D24" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="3">
-        <v>1.0</v>
+        <v>2</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="5">
-        <f t="shared" si="1"/>
-        <v>8.2979</v>
+        <f t="shared" si="0"/>
+        <v>5.21835</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="4">
-        <v>8.32</v>
-      </c>
+      <c r="B25" s="4"/>
       <c r="C25" s="4">
-        <v>8.599219999999999</v>
+        <v>8.1133500000000005</v>
       </c>
       <c r="D25" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1.0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G25" s="3"/>
       <c r="H25" s="5">
-        <f t="shared" si="1"/>
-        <v>16.91922</v>
+        <f t="shared" si="0"/>
+        <v>8.1133500000000005</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4">
-        <v>5.21835</v>
-      </c>
+      <c r="B26" s="4">
+        <v>33.323399999999999</v>
+      </c>
+      <c r="C26" s="4"/>
       <c r="D26" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="3">
-        <v>2.0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="5">
-        <f t="shared" si="1"/>
-        <v>5.21835</v>
+        <f t="shared" si="0"/>
+        <v>33.323399999999999</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
-        <v>8.11335</v>
+        <v>3.3992800000000001</v>
       </c>
       <c r="D27" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="5">
-        <f t="shared" si="1"/>
-        <v>8.11335</v>
+        <f t="shared" si="0"/>
+        <v>3.3992800000000001</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="4">
-        <v>33.3234</v>
+        <v>3.4674999999999998</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="3">
-        <v>1.0</v>
-      </c>
+      <c r="D28" s="3"/>
       <c r="F28" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="5">
-        <f t="shared" si="1"/>
-        <v>33.3234</v>
+        <f t="shared" si="0"/>
+        <v>3.4674999999999998</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J28" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4">
-        <v>3.39928</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1.0</v>
-      </c>
+        <v>2.7459750000000001</v>
+      </c>
+      <c r="D29" s="3"/>
       <c r="F29" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="5">
-        <f t="shared" si="1"/>
-        <v>3.39928</v>
+        <f t="shared" si="0"/>
+        <v>2.7459750000000001</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="4">
-        <v>3.4675</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4">
+        <v>5.7393899999999993</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
       <c r="F30" s="3">
-        <v>1.0</v>
+        <v>2</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="5">
-        <f t="shared" si="1"/>
-        <v>3.4675</v>
+        <f t="shared" si="0"/>
+        <v>5.7393899999999993</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J30" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
-        <v>2.745975</v>
+        <v>2.9125000000000001</v>
       </c>
       <c r="D31" s="3"/>
       <c r="F31" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="5">
-        <f t="shared" si="1"/>
-        <v>2.745975</v>
+        <f t="shared" si="0"/>
+        <v>2.9125000000000001</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
-        <v>5.739389999999999</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1.0</v>
-      </c>
+        <v>2.7459750000000001</v>
+      </c>
+      <c r="D32" s="3"/>
       <c r="F32" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="5">
-        <f t="shared" si="1"/>
-        <v>5.73939</v>
+        <f t="shared" si="0"/>
+        <v>2.7459750000000001</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
-        <v>2.9125</v>
-      </c>
-      <c r="D33" s="3"/>
+        <v>2.9125000000000001</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
       <c r="F33" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="5">
-        <f t="shared" si="1"/>
-        <v>2.9125</v>
+        <f t="shared" si="0"/>
+        <v>2.9125000000000001</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L33" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
-        <v>2.745975</v>
+        <v>6.6361999999999997</v>
       </c>
       <c r="D34" s="3"/>
       <c r="F34" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="5">
-        <f t="shared" si="1"/>
-        <v>2.745975</v>
+        <f t="shared" si="0"/>
+        <v>6.6361999999999997</v>
       </c>
       <c r="I34" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
-        <v>2.9125</v>
+        <v>7.7179000000000002</v>
       </c>
       <c r="D35" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="5">
-        <f t="shared" si="1"/>
-        <v>2.9125</v>
+        <f t="shared" si="0"/>
+        <v>7.7179000000000002</v>
       </c>
       <c r="I35" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4">
-        <v>6.6362</v>
-      </c>
-      <c r="D36" s="3"/>
+        <v>6.8976499999999996</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
       <c r="F36" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="5">
-        <f t="shared" si="1"/>
-        <v>6.6362</v>
+        <f t="shared" si="0"/>
+        <v>6.8976499999999996</v>
       </c>
       <c r="I36" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J36" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K36" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4">
-        <v>7.7179</v>
+        <v>7.7179000000000002</v>
       </c>
       <c r="D37" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="5">
-        <f t="shared" si="1"/>
-        <v>7.7179</v>
+        <f t="shared" si="0"/>
+        <v>7.7179000000000002</v>
       </c>
       <c r="I37" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J37" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K37" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L37" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4">
-        <v>6.89765</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1.0</v>
-      </c>
+        <v>6.6361999999999997</v>
+      </c>
+      <c r="D38" s="3"/>
       <c r="F38" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="5">
-        <f t="shared" si="1"/>
-        <v>6.89765</v>
+        <f t="shared" si="0"/>
+        <v>6.6361999999999997</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J38" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="K38" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4">
-        <v>7.7179</v>
+        <v>9.6173500000000001</v>
       </c>
       <c r="D39" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="5">
-        <f t="shared" si="1"/>
-        <v>7.7179</v>
+        <f t="shared" si="0"/>
+        <v>9.6173500000000001</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J39" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K39" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L39" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4">
-        <v>6.6362</v>
-      </c>
-      <c r="D40" s="3"/>
+        <v>9.6173500000000001</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
       <c r="F40" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="5">
-        <f t="shared" si="1"/>
-        <v>6.6362</v>
+        <f t="shared" si="0"/>
+        <v>9.6173500000000001</v>
       </c>
       <c r="I40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J40" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K40" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L40" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4">
-        <v>9.61735</v>
+        <v>6.8976499999999996</v>
       </c>
       <c r="D41" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="5">
-        <f t="shared" si="1"/>
-        <v>9.61735</v>
+        <f t="shared" si="0"/>
+        <v>6.8976499999999996</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J41" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K41" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L41" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="4"/>
+      <c r="B42" s="4">
+        <v>19.733854999999998</v>
+      </c>
       <c r="C42" s="4">
-        <v>9.61735</v>
+        <v>8.9113800000000012</v>
       </c>
       <c r="D42" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="G42" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
       <c r="H42" s="5">
-        <f t="shared" si="1"/>
-        <v>9.61735</v>
+        <f t="shared" si="0"/>
+        <v>28.645235</v>
       </c>
       <c r="I42" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="J42" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K42" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L42" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4">
-        <v>6.89765</v>
-      </c>
+      <c r="B43" s="4">
+        <v>17.530999999999999</v>
+      </c>
+      <c r="C43" s="4"/>
       <c r="D43" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="3">
-        <v>2.0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="5">
-        <f t="shared" si="1"/>
-        <v>6.89765</v>
+        <f t="shared" si="0"/>
+        <v>17.530999999999999</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J43" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L43" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B44" s="4">
-        <v>19.733855</v>
-      </c>
-      <c r="C44" s="4">
-        <v>8.911380000000001</v>
-      </c>
+        <v>32.674809999999994</v>
+      </c>
+      <c r="C44" s="4"/>
       <c r="D44" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1.0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G44" s="3"/>
       <c r="H44" s="5">
-        <f t="shared" si="1"/>
-        <v>28.645235</v>
+        <f t="shared" si="0"/>
+        <v>32.674809999999994</v>
       </c>
       <c r="I44" s="6">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J44" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K44" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L44" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B45" s="4">
-        <v>17.531</v>
+        <v>32.674809999999994</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="5">
-        <f t="shared" si="1"/>
-        <v>17.531</v>
+        <f t="shared" si="0"/>
+        <v>32.674809999999994</v>
       </c>
       <c r="I45" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J45" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K45" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L45" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B46" s="4">
-        <v>32.674809999999994</v>
-      </c>
-      <c r="C46" s="4"/>
+        <v>5.1226349999999998</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1.5764499999999999</v>
+      </c>
       <c r="D46" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G46" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
       <c r="H46" s="5">
-        <f t="shared" si="1"/>
-        <v>32.67481</v>
+        <f t="shared" si="0"/>
+        <v>6.6990850000000002</v>
       </c>
       <c r="I46" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="J46" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L46" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="4">
-        <v>32.674809999999994</v>
-      </c>
-      <c r="C47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4">
+        <v>1.9446000000000001</v>
+      </c>
       <c r="D47" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="3">
-        <v>1.0</v>
+        <v>2</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="5">
-        <f t="shared" si="1"/>
-        <v>32.67481</v>
+        <f t="shared" si="0"/>
+        <v>1.9446000000000001</v>
       </c>
       <c r="I47" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J47" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K47" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="L47" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B48" s="4">
-        <v>5.122635</v>
-      </c>
-      <c r="C48" s="4">
-        <v>1.57645</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1.0</v>
-      </c>
+        <v>2.1283750000000001</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="3"/>
       <c r="F48" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1.0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G48" s="3"/>
       <c r="H48" s="5">
-        <f t="shared" si="1"/>
-        <v>6.699085</v>
+        <f t="shared" si="0"/>
+        <v>2.1283750000000001</v>
       </c>
       <c r="I48" s="6">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J48" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="K48" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L48" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="4"/>
+      <c r="B49" s="4">
+        <v>8.8796999999999997</v>
+      </c>
       <c r="C49" s="4">
-        <v>1.9446</v>
-      </c>
-      <c r="D49" s="3">
-        <v>1.0</v>
-      </c>
+        <v>7.5849000000000002</v>
+      </c>
+      <c r="D49" s="3"/>
       <c r="F49" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="G49" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G49" s="3">
+        <v>2</v>
+      </c>
       <c r="H49" s="5">
-        <f t="shared" si="1"/>
-        <v>1.9446</v>
+        <f t="shared" si="0"/>
+        <v>16.464600000000001</v>
       </c>
       <c r="I49" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="J49" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="K49" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L49" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B50" s="4">
-        <v>2.128375</v>
+        <v>5.4827500000000002</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="3"/>
       <c r="F50" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="5">
-        <f t="shared" si="1"/>
-        <v>2.128375</v>
+        <f t="shared" si="0"/>
+        <v>5.4827500000000002</v>
       </c>
       <c r="I50" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J50" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K50" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L50" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B51" s="4">
-        <v>8.8797</v>
-      </c>
-      <c r="C51" s="4">
-        <v>7.5849</v>
-      </c>
+        <v>24.641690000000001</v>
+      </c>
+      <c r="C51" s="4"/>
       <c r="D51" s="3"/>
       <c r="F51" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G51" s="3">
-        <v>2.0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G51" s="3"/>
       <c r="H51" s="5">
-        <f t="shared" si="1"/>
-        <v>16.4646</v>
+        <f t="shared" si="0"/>
+        <v>24.641690000000001</v>
       </c>
       <c r="I51" s="6">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J51" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K51" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L51" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B52" s="4">
-        <v>5.48275</v>
+        <v>26.595600000000001</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="3"/>
       <c r="F52" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="5">
-        <f t="shared" si="1"/>
-        <v>5.48275</v>
+        <f t="shared" si="0"/>
+        <v>26.595600000000001</v>
       </c>
       <c r="I52" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J52" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K52" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L52" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B53" s="4">
-        <v>24.64169</v>
+        <v>28.8416</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="3"/>
       <c r="F53" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="5">
-        <f t="shared" si="1"/>
-        <v>24.64169</v>
+        <f t="shared" si="0"/>
+        <v>28.8416</v>
       </c>
       <c r="I53" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J53" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K53" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L53" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B54" s="4">
-        <v>26.5956</v>
+        <v>26.826000000000001</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="3"/>
       <c r="F54" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="5">
-        <f t="shared" si="1"/>
-        <v>26.5956</v>
+        <f t="shared" si="0"/>
+        <v>26.826000000000001</v>
       </c>
       <c r="I54" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J54" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K54" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L54" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B55" s="4">
-        <v>28.8416</v>
+        <v>26.826000000000001</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="3"/>
       <c r="F55" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="5">
-        <f t="shared" si="1"/>
-        <v>28.8416</v>
+        <f t="shared" si="0"/>
+        <v>26.826000000000001</v>
       </c>
       <c r="I55" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J55" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K55" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L55" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B56" s="4">
-        <v>26.826</v>
+        <v>2.7665500000000001</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="3"/>
       <c r="F56" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="5">
-        <f t="shared" si="1"/>
-        <v>26.826</v>
+        <f t="shared" si="0"/>
+        <v>2.7665500000000001</v>
       </c>
       <c r="I56" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J56" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K56" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L56" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B57" s="4">
-        <v>26.826</v>
+        <v>26.595600000000001</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="3"/>
       <c r="F57" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="5">
-        <f t="shared" si="1"/>
-        <v>26.826</v>
+        <f t="shared" si="0"/>
+        <v>26.595600000000001</v>
       </c>
       <c r="I57" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J57" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K57" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L57" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="4">
-        <v>2.76655</v>
-      </c>
-      <c r="C58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4">
+        <v>0.97684000000000004</v>
+      </c>
       <c r="D58" s="3"/>
       <c r="F58" s="3">
-        <v>1.0</v>
+        <v>2</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="5">
-        <f t="shared" si="1"/>
-        <v>2.76655</v>
+        <f t="shared" si="0"/>
+        <v>0.97684000000000004</v>
       </c>
       <c r="I58" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J58" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K58" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="L58" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B59" s="4">
-        <v>26.5956</v>
-      </c>
-      <c r="C59" s="4"/>
+        <v>1.8894500000000001</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.76963999999999999</v>
+      </c>
       <c r="D59" s="3"/>
       <c r="F59" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G59" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1</v>
+      </c>
       <c r="H59" s="5">
-        <f t="shared" si="1"/>
-        <v>26.5956</v>
+        <f t="shared" si="0"/>
+        <v>2.65909</v>
       </c>
       <c r="I59" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="J59" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K59" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L59" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4">
-        <v>0.97684</v>
+        <v>2.9621200000000001</v>
       </c>
       <c r="D60" s="3"/>
       <c r="F60" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="5">
-        <f t="shared" si="1"/>
-        <v>0.97684</v>
+        <f t="shared" si="0"/>
+        <v>2.9621200000000001</v>
       </c>
       <c r="I60" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J60" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K60" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L60" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B61" s="4">
-        <v>1.88945</v>
+        <v>11.119145</v>
       </c>
       <c r="C61" s="4">
-        <v>0.76964</v>
+        <v>9.3242449999999995</v>
       </c>
       <c r="D61" s="3"/>
       <c r="F61" s="3">
-        <v>2.0</v>
+        <v>1</v>
       </c>
       <c r="G61" s="3">
-        <v>1.0</v>
+        <v>2</v>
       </c>
       <c r="H61" s="5">
-        <f t="shared" si="1"/>
-        <v>2.65909</v>
+        <f t="shared" si="0"/>
+        <v>20.443390000000001</v>
       </c>
       <c r="I61" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J61" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K61" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="L61" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="4"/>
+      <c r="B62" s="4">
+        <v>11.119145</v>
+      </c>
       <c r="C62" s="4">
-        <v>2.96212</v>
+        <v>9.3242449999999995</v>
       </c>
       <c r="D62" s="3"/>
       <c r="F62" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="G62" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G62" s="3">
+        <v>2</v>
+      </c>
       <c r="H62" s="5">
-        <f t="shared" si="1"/>
-        <v>2.96212</v>
+        <f t="shared" si="0"/>
+        <v>20.443390000000001</v>
       </c>
       <c r="I62" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="J62" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K62" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L62" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="4">
-        <v>11.119145</v>
-      </c>
+      <c r="B63" s="4"/>
       <c r="C63" s="4">
-        <v>9.324245</v>
+        <v>7.7475549999999993</v>
       </c>
       <c r="D63" s="3"/>
       <c r="F63" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G63" s="3">
-        <v>2.0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G63" s="3"/>
       <c r="H63" s="5">
-        <f t="shared" si="1"/>
-        <v>20.44339</v>
+        <f t="shared" si="0"/>
+        <v>7.7475549999999993</v>
       </c>
       <c r="I63" s="6">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J63" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K63" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L63" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B64" s="4">
-        <v>11.119145</v>
+        <v>2.3997299999999999</v>
       </c>
       <c r="C64" s="4">
-        <v>9.324245</v>
+        <v>4.4859499999999999</v>
       </c>
       <c r="D64" s="3"/>
       <c r="F64" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H64" s="5">
-        <f t="shared" si="1"/>
-        <v>20.44339</v>
+        <f t="shared" si="0"/>
+        <v>6.8856799999999998</v>
       </c>
       <c r="I64" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J64" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K64" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L64" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4">
-        <v>7.747554999999999</v>
-      </c>
-      <c r="D65" s="3"/>
+      <c r="B65" s="4">
+        <v>14.928884999999999</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="3">
+        <v>1</v>
+      </c>
       <c r="F65" s="3">
-        <v>2.0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="5">
-        <f t="shared" si="1"/>
-        <v>7.747555</v>
+        <f t="shared" si="0"/>
+        <v>14.928884999999999</v>
       </c>
       <c r="I65" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J65" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K65" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L65" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B66" s="4">
-        <v>2.39973</v>
-      </c>
-      <c r="C66" s="4">
-        <v>4.48595</v>
-      </c>
-      <c r="D66" s="3"/>
+        <v>9.4292499999999997</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="3">
+        <v>1</v>
+      </c>
       <c r="F66" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2.0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G66" s="3"/>
       <c r="H66" s="5">
-        <f t="shared" si="1"/>
-        <v>6.88568</v>
+        <f t="shared" si="0"/>
+        <v>9.4292499999999997</v>
       </c>
       <c r="I66" s="6">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J66" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K66" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L66" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="4">
-        <v>14.928885</v>
-      </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="3">
-        <v>1.0</v>
-      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4">
+        <v>14.712494999999999</v>
+      </c>
+      <c r="D67" s="3"/>
       <c r="F67" s="3">
-        <v>1.0</v>
+        <v>2</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="5">
-        <f t="shared" si="1"/>
-        <v>14.928885</v>
+        <f t="shared" si="0"/>
+        <v>14.712494999999999</v>
       </c>
       <c r="I67" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J67" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="K67" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="L67" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B68" s="4">
-        <v>9.42925</v>
-      </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="3">
-        <v>1.0</v>
-      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4">
+        <v>1.9446000000000001</v>
+      </c>
+      <c r="D68" s="3"/>
       <c r="F68" s="3">
-        <v>1.0</v>
+        <v>2</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="5">
-        <f t="shared" si="1"/>
-        <v>9.42925</v>
+        <f t="shared" si="0"/>
+        <v>1.9446000000000001</v>
       </c>
       <c r="I68" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J68" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="K68" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="L68" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4">
-        <v>14.712494999999999</v>
-      </c>
+      <c r="B69" s="4">
+        <v>8.7520000000000007</v>
+      </c>
+      <c r="C69" s="4"/>
       <c r="D69" s="3"/>
       <c r="F69" s="3">
-        <v>2.0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="5">
-        <f t="shared" si="1"/>
-        <v>14.712495</v>
+        <f t="shared" si="0"/>
+        <v>8.7520000000000007</v>
       </c>
       <c r="I69" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J69" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K69" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L69" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4">
-        <v>1.9446</v>
-      </c>
+      <c r="B70" s="4">
+        <v>4.82843</v>
+      </c>
+      <c r="C70" s="4"/>
       <c r="D70" s="3"/>
       <c r="F70" s="3">
-        <v>2.0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="5">
-        <f t="shared" si="1"/>
-        <v>1.9446</v>
+        <f t="shared" si="0"/>
+        <v>4.82843</v>
       </c>
       <c r="I70" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J70" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K70" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L70" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B71" s="4">
-        <v>8.752</v>
+        <v>4.5644499999999999</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="3"/>
       <c r="F71" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="5">
-        <f t="shared" si="1"/>
-        <v>8.752</v>
+        <f t="shared" si="0"/>
+        <v>4.5644499999999999</v>
       </c>
       <c r="I71" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J71" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K71" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L71" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B72" s="4">
-        <v>4.82843</v>
-      </c>
-      <c r="C72" s="4"/>
+        <v>1.5787599999999999</v>
+      </c>
+      <c r="C72" s="4">
+        <v>15.547134999999999</v>
+      </c>
       <c r="D72" s="3"/>
       <c r="F72" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G72" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
       <c r="H72" s="5">
-        <f t="shared" si="1"/>
-        <v>4.82843</v>
+        <f t="shared" si="0"/>
+        <v>17.125895</v>
       </c>
       <c r="I72" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="J72" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K72" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L72" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B73" s="4">
-        <v>4.56445</v>
+        <v>2.1283750000000001</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="3"/>
       <c r="F73" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="5">
-        <f t="shared" si="1"/>
-        <v>4.56445</v>
+        <f t="shared" si="0"/>
+        <v>2.1283750000000001</v>
       </c>
       <c r="I73" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J73" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K73" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L73" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B74" s="4">
-        <v>1.57876</v>
-      </c>
-      <c r="C74" s="4">
-        <v>15.547134999999999</v>
-      </c>
+        <v>0.93293000000000004</v>
+      </c>
+      <c r="C74" s="4"/>
       <c r="D74" s="3"/>
       <c r="F74" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="G74" s="3">
-        <v>1.0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G74" s="3"/>
       <c r="H74" s="5">
-        <f t="shared" si="1"/>
-        <v>17.125895</v>
+        <f t="shared" si="0"/>
+        <v>0.93293000000000004</v>
       </c>
       <c r="I74" s="6">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J74" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K74" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L74" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B75" s="4">
-        <v>2.128375</v>
+        <v>1.8118000000000001</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="3"/>
       <c r="F75" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="5">
-        <f t="shared" si="1"/>
-        <v>2.128375</v>
+        <f t="shared" si="0"/>
+        <v>1.8118000000000001</v>
       </c>
       <c r="I75" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J75" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K75" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L75" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B76" s="4">
-        <v>0.93293</v>
+        <v>1.8118000000000001</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="3"/>
       <c r="F76" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="5">
-        <f t="shared" si="1"/>
-        <v>0.93293</v>
+        <f t="shared" si="0"/>
+        <v>1.8118000000000001</v>
       </c>
       <c r="I76" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J76" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K76" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L76" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B77" s="4">
-        <v>1.8118</v>
-      </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="3"/>
+        <v>6.9123549999999998</v>
+      </c>
+      <c r="C77" s="4">
+        <v>5.79</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1</v>
+      </c>
       <c r="F77" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G77" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G77" s="3">
+        <v>2</v>
+      </c>
       <c r="H77" s="5">
-        <f t="shared" si="1"/>
-        <v>1.8118</v>
+        <f t="shared" si="0"/>
+        <v>12.702355000000001</v>
       </c>
       <c r="I77" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="J77" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K77" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="L77" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B78" s="4">
-        <v>1.8118</v>
-      </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="3"/>
+        <v>6.9123549999999998</v>
+      </c>
+      <c r="C78" s="4">
+        <v>5.79</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1</v>
+      </c>
       <c r="F78" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G78" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G78" s="3">
+        <v>2</v>
+      </c>
       <c r="H78" s="5">
-        <f t="shared" si="1"/>
-        <v>1.8118</v>
+        <f t="shared" si="0"/>
+        <v>12.702355000000001</v>
       </c>
       <c r="I78" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="J78" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K78" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="L78" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B79" s="4">
-        <v>6.912355</v>
-      </c>
-      <c r="C79" s="4">
-        <v>5.79</v>
-      </c>
-      <c r="D79" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F79" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G79" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="H79" s="5">
-        <f t="shared" si="1"/>
-        <v>12.702355</v>
-      </c>
-      <c r="I79" s="6">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J79" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K79" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L79" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B80" s="4">
-        <v>6.912355</v>
-      </c>
-      <c r="C80" s="4">
-        <v>5.79</v>
-      </c>
-      <c r="D80" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F80" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G80" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="H80" s="5">
-        <f t="shared" si="1"/>
-        <v>12.702355</v>
-      </c>
-      <c r="I80" s="6">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J80" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K80" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L80" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F270" s="3"/>
       <c r="G270" s="3"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F272" s="3"/>
       <c r="G272" s="3"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F273" s="3"/>
       <c r="G273" s="3"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F274" s="3"/>
       <c r="G274" s="3"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F276" s="3"/>
       <c r="G276" s="3"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F279" s="3"/>
       <c r="G279" s="3"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F280" s="3"/>
       <c r="G280" s="3"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F282" s="3"/>
       <c r="G282" s="3"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F284" s="3"/>
       <c r="G284" s="3"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F286" s="3"/>
       <c r="G286" s="3"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F288" s="3"/>
       <c r="G288" s="3"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F289" s="3"/>
       <c r="G289" s="3"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F290" s="3"/>
       <c r="G290" s="3"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F299" s="3"/>
       <c r="G299" s="3"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F301" s="3"/>
       <c r="G301" s="3"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F302" s="3"/>
       <c r="G302" s="3"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F306" s="3"/>
       <c r="G306" s="3"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F310" s="3"/>
       <c r="G310" s="3"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F311" s="3"/>
       <c r="G311" s="3"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F312" s="3"/>
       <c r="G312" s="3"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F314" s="3"/>
       <c r="G314" s="3"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F315" s="3"/>
       <c r="G315" s="3"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F316" s="3"/>
       <c r="G316" s="3"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F319" s="3"/>
       <c r="G319" s="3"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F320" s="3"/>
       <c r="G320" s="3"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F321" s="3"/>
       <c r="G321" s="3"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F322" s="3"/>
       <c r="G322" s="3"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F323" s="3"/>
       <c r="G323" s="3"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F324" s="3"/>
       <c r="G324" s="3"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F327" s="3"/>
       <c r="G327" s="3"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F328" s="3"/>
       <c r="G328" s="3"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F329" s="3"/>
       <c r="G329" s="3"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F330" s="3"/>
       <c r="G330" s="3"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F331" s="3"/>
       <c r="G331" s="3"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F333" s="3"/>
       <c r="G333" s="3"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F334" s="3"/>
       <c r="G334" s="3"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F335" s="3"/>
       <c r="G335" s="3"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F336" s="3"/>
       <c r="G336" s="3"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F338" s="3"/>
       <c r="G338" s="3"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F339" s="3"/>
       <c r="G339" s="3"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F340" s="3"/>
       <c r="G340" s="3"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F341" s="3"/>
       <c r="G341" s="3"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F342" s="3"/>
       <c r="G342" s="3"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F345" s="3"/>
       <c r="G345" s="3"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F346" s="3"/>
       <c r="G346" s="3"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F347" s="3"/>
       <c r="G347" s="3"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F348" s="3"/>
       <c r="G348" s="3"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F350" s="3"/>
       <c r="G350" s="3"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F352" s="3"/>
       <c r="G352" s="3"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F353" s="3"/>
       <c r="G353" s="3"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F354" s="3"/>
       <c r="G354" s="3"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F355" s="3"/>
       <c r="G355" s="3"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F356" s="3"/>
       <c r="G356" s="3"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F357" s="3"/>
       <c r="G357" s="3"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F358" s="3"/>
       <c r="G358" s="3"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F359" s="3"/>
       <c r="G359" s="3"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F360" s="3"/>
       <c r="G360" s="3"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F361" s="3"/>
       <c r="G361" s="3"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F362" s="3"/>
       <c r="G362" s="3"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F363" s="3"/>
       <c r="G363" s="3"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F364" s="3"/>
       <c r="G364" s="3"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F365" s="3"/>
       <c r="G365" s="3"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F366" s="3"/>
       <c r="G366" s="3"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F367" s="3"/>
       <c r="G367" s="3"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F368" s="3"/>
       <c r="G368" s="3"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F369" s="3"/>
       <c r="G369" s="3"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F370" s="3"/>
       <c r="G370" s="3"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F371" s="3"/>
       <c r="G371" s="3"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F372" s="3"/>
       <c r="G372" s="3"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F373" s="3"/>
       <c r="G373" s="3"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F374" s="3"/>
       <c r="G374" s="3"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F375" s="3"/>
       <c r="G375" s="3"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F376" s="3"/>
       <c r="G376" s="3"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F377" s="3"/>
       <c r="G377" s="3"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F378" s="3"/>
       <c r="G378" s="3"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F379" s="3"/>
       <c r="G379" s="3"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F380" s="3"/>
       <c r="G380" s="3"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F381" s="3"/>
       <c r="G381" s="3"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F382" s="3"/>
       <c r="G382" s="3"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F383" s="3"/>
       <c r="G383" s="3"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F384" s="3"/>
       <c r="G384" s="3"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F385" s="3"/>
       <c r="G385" s="3"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F386" s="3"/>
       <c r="G386" s="3"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F387" s="3"/>
       <c r="G387" s="3"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F388" s="3"/>
       <c r="G388" s="3"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F391" s="3"/>
       <c r="G391" s="3"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F392" s="3"/>
       <c r="G392" s="3"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F393" s="3"/>
       <c r="G393" s="3"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F394" s="3"/>
       <c r="G394" s="3"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F396" s="3"/>
       <c r="G396" s="3"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F397" s="3"/>
       <c r="G397" s="3"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F398" s="3"/>
       <c r="G398" s="3"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F399" s="3"/>
       <c r="G399" s="3"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F400" s="3"/>
       <c r="G400" s="3"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F401" s="3"/>
       <c r="G401" s="3"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F402" s="3"/>
       <c r="G402" s="3"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F405" s="3"/>
       <c r="G405" s="3"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F406" s="3"/>
       <c r="G406" s="3"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F407" s="3"/>
       <c r="G407" s="3"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F408" s="3"/>
       <c r="G408" s="3"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F409" s="3"/>
       <c r="G409" s="3"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F410" s="3"/>
       <c r="G410" s="3"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F411" s="3"/>
       <c r="G411" s="3"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F412" s="3"/>
       <c r="G412" s="3"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F413" s="3"/>
       <c r="G413" s="3"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F414" s="3"/>
       <c r="G414" s="3"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F415" s="3"/>
       <c r="G415" s="3"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F424" s="3"/>
       <c r="G424" s="3"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F426" s="3"/>
       <c r="G426" s="3"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F427" s="3"/>
       <c r="G427" s="3"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F428" s="3"/>
       <c r="G428" s="3"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F429" s="3"/>
       <c r="G429" s="3"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F430" s="3"/>
       <c r="G430" s="3"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F431" s="3"/>
       <c r="G431" s="3"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F432" s="3"/>
       <c r="G432" s="3"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F433" s="3"/>
       <c r="G433" s="3"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F434" s="3"/>
       <c r="G434" s="3"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F435" s="3"/>
       <c r="G435" s="3"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F436" s="3"/>
       <c r="G436" s="3"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F437" s="3"/>
       <c r="G437" s="3"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F438" s="3"/>
       <c r="G438" s="3"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F439" s="3"/>
       <c r="G439" s="3"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F440" s="3"/>
       <c r="G440" s="3"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F441" s="3"/>
       <c r="G441" s="3"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F442" s="3"/>
       <c r="G442" s="3"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F443" s="3"/>
       <c r="G443" s="3"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F444" s="3"/>
       <c r="G444" s="3"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F445" s="3"/>
       <c r="G445" s="3"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F446" s="3"/>
       <c r="G446" s="3"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F447" s="3"/>
       <c r="G447" s="3"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F448" s="3"/>
       <c r="G448" s="3"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F449" s="3"/>
       <c r="G449" s="3"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F450" s="3"/>
       <c r="G450" s="3"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F451" s="3"/>
       <c r="G451" s="3"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F452" s="3"/>
       <c r="G452" s="3"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F453" s="3"/>
       <c r="G453" s="3"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F454" s="3"/>
       <c r="G454" s="3"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F455" s="3"/>
       <c r="G455" s="3"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F456" s="3"/>
       <c r="G456" s="3"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F457" s="3"/>
       <c r="G457" s="3"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F458" s="3"/>
       <c r="G458" s="3"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F459" s="3"/>
       <c r="G459" s="3"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F460" s="3"/>
       <c r="G460" s="3"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F461" s="3"/>
       <c r="G461" s="3"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F462" s="3"/>
       <c r="G462" s="3"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F463" s="3"/>
       <c r="G463" s="3"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F464" s="3"/>
       <c r="G464" s="3"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F465" s="3"/>
       <c r="G465" s="3"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F466" s="3"/>
       <c r="G466" s="3"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F467" s="3"/>
       <c r="G467" s="3"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F468" s="3"/>
       <c r="G468" s="3"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F469" s="3"/>
       <c r="G469" s="3"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F470" s="3"/>
       <c r="G470" s="3"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F471" s="3"/>
       <c r="G471" s="3"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F472" s="3"/>
       <c r="G472" s="3"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F473" s="3"/>
       <c r="G473" s="3"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F474" s="3"/>
       <c r="G474" s="3"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F475" s="3"/>
       <c r="G475" s="3"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F476" s="3"/>
       <c r="G476" s="3"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F477" s="3"/>
       <c r="G477" s="3"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F478" s="3"/>
       <c r="G478" s="3"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F479" s="3"/>
       <c r="G479" s="3"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F480" s="3"/>
       <c r="G480" s="3"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F481" s="3"/>
       <c r="G481" s="3"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F482" s="3"/>
       <c r="G482" s="3"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F483" s="3"/>
       <c r="G483" s="3"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F484" s="3"/>
       <c r="G484" s="3"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F485" s="3"/>
       <c r="G485" s="3"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F486" s="3"/>
       <c r="G486" s="3"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F487" s="3"/>
       <c r="G487" s="3"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F488" s="3"/>
       <c r="G488" s="3"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F489" s="3"/>
       <c r="G489" s="3"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F490" s="3"/>
       <c r="G490" s="3"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F491" s="3"/>
       <c r="G491" s="3"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F492" s="3"/>
       <c r="G492" s="3"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F493" s="3"/>
       <c r="G493" s="3"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F494" s="3"/>
       <c r="G494" s="3"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F495" s="3"/>
       <c r="G495" s="3"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F496" s="3"/>
       <c r="G496" s="3"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F497" s="3"/>
       <c r="G497" s="3"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F498" s="3"/>
       <c r="G498" s="3"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F499" s="3"/>
       <c r="G499" s="3"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F500" s="3"/>
       <c r="G500" s="3"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F501" s="3"/>
       <c r="G501" s="3"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F502" s="3"/>
       <c r="G502" s="3"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F503" s="3"/>
       <c r="G503" s="3"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F504" s="3"/>
       <c r="G504" s="3"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F505" s="3"/>
       <c r="G505" s="3"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F506" s="3"/>
       <c r="G506" s="3"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F507" s="3"/>
       <c r="G507" s="3"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F508" s="3"/>
       <c r="G508" s="3"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F509" s="3"/>
       <c r="G509" s="3"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F510" s="3"/>
       <c r="G510" s="3"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F511" s="3"/>
       <c r="G511" s="3"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F512" s="3"/>
       <c r="G512" s="3"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F513" s="3"/>
       <c r="G513" s="3"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F514" s="3"/>
       <c r="G514" s="3"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F515" s="3"/>
       <c r="G515" s="3"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F516" s="3"/>
       <c r="G516" s="3"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F517" s="3"/>
       <c r="G517" s="3"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F518" s="3"/>
       <c r="G518" s="3"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F519" s="3"/>
       <c r="G519" s="3"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F520" s="3"/>
       <c r="G520" s="3"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F521" s="3"/>
       <c r="G521" s="3"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F522" s="3"/>
       <c r="G522" s="3"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F523" s="3"/>
       <c r="G523" s="3"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F524" s="3"/>
       <c r="G524" s="3"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F525" s="3"/>
       <c r="G525" s="3"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F526" s="3"/>
       <c r="G526" s="3"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F527" s="3"/>
       <c r="G527" s="3"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F528" s="3"/>
       <c r="G528" s="3"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F529" s="3"/>
       <c r="G529" s="3"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F530" s="3"/>
       <c r="G530" s="3"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F531" s="3"/>
       <c r="G531" s="3"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F532" s="3"/>
       <c r="G532" s="3"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F533" s="3"/>
       <c r="G533" s="3"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F534" s="3"/>
       <c r="G534" s="3"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F535" s="3"/>
       <c r="G535" s="3"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F536" s="3"/>
       <c r="G536" s="3"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F537" s="3"/>
       <c r="G537" s="3"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F538" s="3"/>
       <c r="G538" s="3"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F539" s="3"/>
       <c r="G539" s="3"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F540" s="3"/>
       <c r="G540" s="3"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F541" s="3"/>
       <c r="G541" s="3"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F542" s="3"/>
       <c r="G542" s="3"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F543" s="3"/>
       <c r="G543" s="3"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F544" s="3"/>
       <c r="G544" s="3"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F545" s="3"/>
       <c r="G545" s="3"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F546" s="3"/>
       <c r="G546" s="3"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F547" s="3"/>
       <c r="G547" s="3"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F548" s="3"/>
       <c r="G548" s="3"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F549" s="3"/>
       <c r="G549" s="3"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F550" s="3"/>
       <c r="G550" s="3"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F551" s="3"/>
       <c r="G551" s="3"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F552" s="3"/>
       <c r="G552" s="3"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F553" s="3"/>
       <c r="G553" s="3"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F554" s="3"/>
       <c r="G554" s="3"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F555" s="3"/>
       <c r="G555" s="3"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F556" s="3"/>
       <c r="G556" s="3"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F557" s="3"/>
       <c r="G557" s="3"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F558" s="3"/>
       <c r="G558" s="3"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F559" s="3"/>
       <c r="G559" s="3"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F560" s="3"/>
       <c r="G560" s="3"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F561" s="3"/>
       <c r="G561" s="3"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F562" s="3"/>
       <c r="G562" s="3"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F563" s="3"/>
       <c r="G563" s="3"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F564" s="3"/>
       <c r="G564" s="3"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F565" s="3"/>
       <c r="G565" s="3"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F566" s="3"/>
       <c r="G566" s="3"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F567" s="3"/>
       <c r="G567" s="3"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F568" s="3"/>
       <c r="G568" s="3"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F569" s="3"/>
       <c r="G569" s="3"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F570" s="3"/>
       <c r="G570" s="3"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F571" s="3"/>
       <c r="G571" s="3"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F572" s="3"/>
       <c r="G572" s="3"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F573" s="3"/>
       <c r="G573" s="3"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F574" s="3"/>
       <c r="G574" s="3"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F575" s="3"/>
       <c r="G575" s="3"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F576" s="3"/>
       <c r="G576" s="3"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F577" s="3"/>
       <c r="G577" s="3"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F578" s="3"/>
       <c r="G578" s="3"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F579" s="3"/>
       <c r="G579" s="3"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F580" s="3"/>
       <c r="G580" s="3"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F581" s="3"/>
       <c r="G581" s="3"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F582" s="3"/>
       <c r="G582" s="3"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F583" s="3"/>
       <c r="G583" s="3"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F584" s="3"/>
       <c r="G584" s="3"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F585" s="3"/>
       <c r="G585" s="3"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F586" s="3"/>
       <c r="G586" s="3"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F587" s="3"/>
       <c r="G587" s="3"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F588" s="3"/>
       <c r="G588" s="3"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F589" s="3"/>
       <c r="G589" s="3"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F590" s="3"/>
       <c r="G590" s="3"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F591" s="3"/>
       <c r="G591" s="3"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F592" s="3"/>
       <c r="G592" s="3"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F593" s="3"/>
       <c r="G593" s="3"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F594" s="3"/>
       <c r="G594" s="3"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F595" s="3"/>
       <c r="G595" s="3"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F596" s="3"/>
       <c r="G596" s="3"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1">
+    <row r="597" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F597" s="3"/>
       <c r="G597" s="3"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1">
+    <row r="598" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F598" s="3"/>
       <c r="G598" s="3"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1">
+    <row r="599" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F599" s="3"/>
       <c r="G599" s="3"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1">
+    <row r="600" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F600" s="3"/>
       <c r="G600" s="3"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1">
+    <row r="601" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F601" s="3"/>
       <c r="G601" s="3"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1">
+    <row r="602" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F602" s="3"/>
       <c r="G602" s="3"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1">
+    <row r="603" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F603" s="3"/>
       <c r="G603" s="3"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1">
+    <row r="604" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F604" s="3"/>
       <c r="G604" s="3"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1">
+    <row r="605" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F605" s="3"/>
       <c r="G605" s="3"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1">
+    <row r="606" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F606" s="3"/>
       <c r="G606" s="3"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1">
+    <row r="607" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F607" s="3"/>
       <c r="G607" s="3"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1">
+    <row r="608" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F608" s="3"/>
       <c r="G608" s="3"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1">
+    <row r="609" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F609" s="3"/>
       <c r="G609" s="3"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1">
+    <row r="610" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F610" s="3"/>
       <c r="G610" s="3"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1">
+    <row r="611" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F611" s="3"/>
       <c r="G611" s="3"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1">
+    <row r="612" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F612" s="3"/>
       <c r="G612" s="3"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1">
+    <row r="613" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F613" s="3"/>
       <c r="G613" s="3"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1">
+    <row r="614" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F614" s="3"/>
       <c r="G614" s="3"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1">
+    <row r="615" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F615" s="3"/>
       <c r="G615" s="3"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1">
+    <row r="616" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F616" s="3"/>
       <c r="G616" s="3"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1">
+    <row r="617" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F617" s="3"/>
       <c r="G617" s="3"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1">
+    <row r="618" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F618" s="3"/>
       <c r="G618" s="3"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1">
+    <row r="619" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F619" s="3"/>
       <c r="G619" s="3"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1">
+    <row r="620" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F620" s="3"/>
       <c r="G620" s="3"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1">
+    <row r="621" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F621" s="3"/>
       <c r="G621" s="3"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1">
+    <row r="622" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F622" s="3"/>
       <c r="G622" s="3"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1">
+    <row r="623" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F623" s="3"/>
       <c r="G623" s="3"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1">
+    <row r="624" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F624" s="3"/>
       <c r="G624" s="3"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1">
+    <row r="625" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F625" s="3"/>
       <c r="G625" s="3"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1">
+    <row r="626" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F626" s="3"/>
       <c r="G626" s="3"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1">
+    <row r="627" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F627" s="3"/>
       <c r="G627" s="3"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1">
+    <row r="628" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F628" s="3"/>
       <c r="G628" s="3"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1">
+    <row r="629" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F629" s="3"/>
       <c r="G629" s="3"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1">
+    <row r="630" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F630" s="3"/>
       <c r="G630" s="3"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1">
+    <row r="631" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F631" s="3"/>
       <c r="G631" s="3"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1">
+    <row r="632" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F632" s="3"/>
       <c r="G632" s="3"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1">
+    <row r="633" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F633" s="3"/>
       <c r="G633" s="3"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1">
+    <row r="634" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F634" s="3"/>
       <c r="G634" s="3"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1">
+    <row r="635" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F635" s="3"/>
       <c r="G635" s="3"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1">
+    <row r="636" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F636" s="3"/>
       <c r="G636" s="3"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1">
+    <row r="637" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F637" s="3"/>
       <c r="G637" s="3"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1">
+    <row r="638" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F638" s="3"/>
       <c r="G638" s="3"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1">
+    <row r="639" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F639" s="3"/>
       <c r="G639" s="3"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1">
+    <row r="640" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F640" s="3"/>
       <c r="G640" s="3"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1">
+    <row r="641" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F641" s="3"/>
       <c r="G641" s="3"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1">
+    <row r="642" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F642" s="3"/>
       <c r="G642" s="3"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1">
+    <row r="643" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F643" s="3"/>
       <c r="G643" s="3"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1">
+    <row r="644" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F644" s="3"/>
       <c r="G644" s="3"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F645" s="3"/>
       <c r="G645" s="3"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F646" s="3"/>
       <c r="G646" s="3"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1">
+    <row r="647" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F647" s="3"/>
       <c r="G647" s="3"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1">
+    <row r="648" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F648" s="3"/>
       <c r="G648" s="3"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1">
+    <row r="649" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F649" s="3"/>
       <c r="G649" s="3"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1">
+    <row r="650" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F650" s="3"/>
       <c r="G650" s="3"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1">
+    <row r="651" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F651" s="3"/>
       <c r="G651" s="3"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1">
+    <row r="652" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F652" s="3"/>
       <c r="G652" s="3"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1">
+    <row r="653" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F653" s="3"/>
       <c r="G653" s="3"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1">
+    <row r="654" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F654" s="3"/>
       <c r="G654" s="3"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1">
+    <row r="655" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F655" s="3"/>
       <c r="G655" s="3"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1">
+    <row r="656" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F656" s="3"/>
       <c r="G656" s="3"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1">
+    <row r="657" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F657" s="3"/>
       <c r="G657" s="3"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1">
+    <row r="658" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F658" s="3"/>
       <c r="G658" s="3"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1">
+    <row r="659" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F659" s="3"/>
       <c r="G659" s="3"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F660" s="3"/>
       <c r="G660" s="3"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1">
+    <row r="661" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F661" s="3"/>
       <c r="G661" s="3"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1">
+    <row r="662" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F662" s="3"/>
       <c r="G662" s="3"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1">
+    <row r="663" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F663" s="3"/>
       <c r="G663" s="3"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1">
+    <row r="664" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F664" s="3"/>
       <c r="G664" s="3"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1">
+    <row r="665" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F665" s="3"/>
       <c r="G665" s="3"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1">
+    <row r="666" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F666" s="3"/>
       <c r="G666" s="3"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1">
+    <row r="667" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F667" s="3"/>
       <c r="G667" s="3"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1">
+    <row r="668" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F668" s="3"/>
       <c r="G668" s="3"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1">
+    <row r="669" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F669" s="3"/>
       <c r="G669" s="3"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1">
+    <row r="670" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F670" s="3"/>
       <c r="G670" s="3"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F671" s="3"/>
       <c r="G671" s="3"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1">
+    <row r="672" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F672" s="3"/>
       <c r="G672" s="3"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1">
+    <row r="673" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F673" s="3"/>
       <c r="G673" s="3"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1">
+    <row r="674" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F674" s="3"/>
       <c r="G674" s="3"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1">
+    <row r="675" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F675" s="3"/>
       <c r="G675" s="3"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1">
+    <row r="676" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F676" s="3"/>
       <c r="G676" s="3"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1">
+    <row r="677" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F677" s="3"/>
       <c r="G677" s="3"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1">
+    <row r="678" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F678" s="3"/>
       <c r="G678" s="3"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1">
+    <row r="679" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F679" s="3"/>
       <c r="G679" s="3"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1">
+    <row r="680" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F680" s="3"/>
       <c r="G680" s="3"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1">
+    <row r="681" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F681" s="3"/>
       <c r="G681" s="3"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1">
+    <row r="682" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F682" s="3"/>
       <c r="G682" s="3"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1">
+    <row r="683" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F683" s="3"/>
       <c r="G683" s="3"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1">
+    <row r="684" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F684" s="3"/>
       <c r="G684" s="3"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1">
+    <row r="685" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F685" s="3"/>
       <c r="G685" s="3"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1">
+    <row r="686" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F686" s="3"/>
       <c r="G686" s="3"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1">
+    <row r="687" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F687" s="3"/>
       <c r="G687" s="3"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1">
+    <row r="688" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F688" s="3"/>
       <c r="G688" s="3"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1">
+    <row r="689" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F689" s="3"/>
       <c r="G689" s="3"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1">
+    <row r="690" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F690" s="3"/>
       <c r="G690" s="3"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1">
+    <row r="691" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F691" s="3"/>
       <c r="G691" s="3"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1">
+    <row r="692" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F692" s="3"/>
       <c r="G692" s="3"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1">
+    <row r="693" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F693" s="3"/>
       <c r="G693" s="3"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1">
+    <row r="694" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F694" s="3"/>
       <c r="G694" s="3"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F695" s="3"/>
       <c r="G695" s="3"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F696" s="3"/>
       <c r="G696" s="3"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F697" s="3"/>
       <c r="G697" s="3"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F698" s="3"/>
       <c r="G698" s="3"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F699" s="3"/>
       <c r="G699" s="3"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F700" s="3"/>
       <c r="G700" s="3"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F701" s="3"/>
       <c r="G701" s="3"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F702" s="3"/>
       <c r="G702" s="3"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F703" s="3"/>
       <c r="G703" s="3"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F704" s="3"/>
       <c r="G704" s="3"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F705" s="3"/>
       <c r="G705" s="3"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1">
+    <row r="706" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F706" s="3"/>
       <c r="G706" s="3"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1">
+    <row r="707" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F707" s="3"/>
       <c r="G707" s="3"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1">
+    <row r="708" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F708" s="3"/>
       <c r="G708" s="3"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1">
+    <row r="709" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F709" s="3"/>
       <c r="G709" s="3"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1">
+    <row r="710" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F710" s="3"/>
       <c r="G710" s="3"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1">
+    <row r="711" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F711" s="3"/>
       <c r="G711" s="3"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1">
+    <row r="712" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F712" s="3"/>
       <c r="G712" s="3"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1">
+    <row r="713" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F713" s="3"/>
       <c r="G713" s="3"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1">
+    <row r="714" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F714" s="3"/>
       <c r="G714" s="3"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1">
+    <row r="715" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F715" s="3"/>
       <c r="G715" s="3"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1">
+    <row r="716" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F716" s="3"/>
       <c r="G716" s="3"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
+    <row r="717" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F717" s="3"/>
       <c r="G717" s="3"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1">
+    <row r="718" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F718" s="3"/>
       <c r="G718" s="3"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1">
+    <row r="719" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F719" s="3"/>
       <c r="G719" s="3"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1">
+    <row r="720" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F720" s="3"/>
       <c r="G720" s="3"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1">
+    <row r="721" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F721" s="3"/>
       <c r="G721" s="3"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1">
+    <row r="722" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F722" s="3"/>
       <c r="G722" s="3"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1">
+    <row r="723" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F723" s="3"/>
       <c r="G723" s="3"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1">
+    <row r="724" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F724" s="3"/>
       <c r="G724" s="3"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1">
+    <row r="725" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F725" s="3"/>
       <c r="G725" s="3"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1">
+    <row r="726" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F726" s="3"/>
       <c r="G726" s="3"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1">
+    <row r="727" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F727" s="3"/>
       <c r="G727" s="3"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1">
+    <row r="728" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F728" s="3"/>
       <c r="G728" s="3"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
+    <row r="729" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F729" s="3"/>
       <c r="G729" s="3"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1">
+    <row r="730" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F730" s="3"/>
       <c r="G730" s="3"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1">
+    <row r="731" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F731" s="3"/>
       <c r="G731" s="3"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1">
+    <row r="732" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F732" s="3"/>
       <c r="G732" s="3"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1">
+    <row r="733" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F733" s="3"/>
       <c r="G733" s="3"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1">
+    <row r="734" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F734" s="3"/>
       <c r="G734" s="3"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1">
+    <row r="735" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F735" s="3"/>
       <c r="G735" s="3"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1">
+    <row r="736" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F736" s="3"/>
       <c r="G736" s="3"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1">
+    <row r="737" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F737" s="3"/>
       <c r="G737" s="3"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1">
+    <row r="738" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F738" s="3"/>
       <c r="G738" s="3"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1">
+    <row r="739" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F739" s="3"/>
       <c r="G739" s="3"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1">
+    <row r="740" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F740" s="3"/>
       <c r="G740" s="3"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1">
+    <row r="741" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F741" s="3"/>
       <c r="G741" s="3"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1">
+    <row r="742" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F742" s="3"/>
       <c r="G742" s="3"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1">
+    <row r="743" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F743" s="3"/>
       <c r="G743" s="3"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1">
+    <row r="744" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F744" s="3"/>
       <c r="G744" s="3"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1">
+    <row r="745" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F745" s="3"/>
       <c r="G745" s="3"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1">
+    <row r="746" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F746" s="3"/>
       <c r="G746" s="3"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1">
+    <row r="747" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F747" s="3"/>
       <c r="G747" s="3"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1">
+    <row r="748" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F748" s="3"/>
       <c r="G748" s="3"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1">
+    <row r="749" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F749" s="3"/>
       <c r="G749" s="3"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1">
+    <row r="750" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F750" s="3"/>
       <c r="G750" s="3"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1">
+    <row r="751" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F751" s="3"/>
       <c r="G751" s="3"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1">
+    <row r="752" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F752" s="3"/>
       <c r="G752" s="3"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1">
+    <row r="753" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F753" s="3"/>
       <c r="G753" s="3"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1">
+    <row r="754" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F754" s="3"/>
       <c r="G754" s="3"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1">
+    <row r="755" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F755" s="3"/>
       <c r="G755" s="3"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1">
+    <row r="756" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F756" s="3"/>
       <c r="G756" s="3"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1">
+    <row r="757" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F757" s="3"/>
       <c r="G757" s="3"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1">
+    <row r="758" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F758" s="3"/>
       <c r="G758" s="3"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1">
+    <row r="759" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F759" s="3"/>
       <c r="G759" s="3"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1">
+    <row r="760" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F760" s="3"/>
       <c r="G760" s="3"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1">
+    <row r="761" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F761" s="3"/>
       <c r="G761" s="3"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1">
+    <row r="762" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F762" s="3"/>
       <c r="G762" s="3"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1">
+    <row r="763" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F763" s="3"/>
       <c r="G763" s="3"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1">
+    <row r="764" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F764" s="3"/>
       <c r="G764" s="3"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1">
+    <row r="765" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F765" s="3"/>
       <c r="G765" s="3"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1">
+    <row r="766" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F766" s="3"/>
       <c r="G766" s="3"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1">
+    <row r="767" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F767" s="3"/>
       <c r="G767" s="3"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1">
+    <row r="768" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F768" s="3"/>
       <c r="G768" s="3"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1">
+    <row r="769" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F769" s="3"/>
       <c r="G769" s="3"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1">
+    <row r="770" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F770" s="3"/>
       <c r="G770" s="3"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1">
+    <row r="771" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F771" s="3"/>
       <c r="G771" s="3"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1">
+    <row r="772" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F772" s="3"/>
       <c r="G772" s="3"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1">
+    <row r="773" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F773" s="3"/>
       <c r="G773" s="3"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1">
+    <row r="774" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F774" s="3"/>
       <c r="G774" s="3"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1">
+    <row r="775" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F775" s="3"/>
       <c r="G775" s="3"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1">
+    <row r="776" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F776" s="3"/>
       <c r="G776" s="3"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1">
+    <row r="777" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F777" s="3"/>
       <c r="G777" s="3"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1">
+    <row r="778" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F778" s="3"/>
       <c r="G778" s="3"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1">
+    <row r="779" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F779" s="3"/>
       <c r="G779" s="3"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1">
+    <row r="780" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F780" s="3"/>
       <c r="G780" s="3"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1">
+    <row r="781" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F781" s="3"/>
       <c r="G781" s="3"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1">
+    <row r="782" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F782" s="3"/>
       <c r="G782" s="3"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1">
+    <row r="783" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F783" s="3"/>
       <c r="G783" s="3"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1">
+    <row r="784" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F784" s="3"/>
       <c r="G784" s="3"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1">
+    <row r="785" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F785" s="3"/>
       <c r="G785" s="3"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1">
+    <row r="786" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F786" s="3"/>
       <c r="G786" s="3"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1">
+    <row r="787" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F787" s="3"/>
       <c r="G787" s="3"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1">
+    <row r="788" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F788" s="3"/>
       <c r="G788" s="3"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1">
+    <row r="789" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F789" s="3"/>
       <c r="G789" s="3"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1">
+    <row r="790" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F790" s="3"/>
       <c r="G790" s="3"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1">
+    <row r="791" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F791" s="3"/>
       <c r="G791" s="3"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1">
+    <row r="792" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F792" s="3"/>
       <c r="G792" s="3"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1">
+    <row r="793" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F793" s="3"/>
       <c r="G793" s="3"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1">
+    <row r="794" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F794" s="3"/>
       <c r="G794" s="3"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1">
+    <row r="795" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F795" s="3"/>
       <c r="G795" s="3"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1">
+    <row r="796" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F796" s="3"/>
       <c r="G796" s="3"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1">
+    <row r="797" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F797" s="3"/>
       <c r="G797" s="3"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1">
+    <row r="798" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F798" s="3"/>
       <c r="G798" s="3"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1">
+    <row r="799" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F799" s="3"/>
       <c r="G799" s="3"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1">
+    <row r="800" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F800" s="3"/>
       <c r="G800" s="3"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1">
+    <row r="801" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F801" s="3"/>
       <c r="G801" s="3"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1">
+    <row r="802" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F802" s="3"/>
       <c r="G802" s="3"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1">
+    <row r="803" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F803" s="3"/>
       <c r="G803" s="3"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1">
+    <row r="804" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F804" s="3"/>
       <c r="G804" s="3"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1">
+    <row r="805" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F805" s="3"/>
       <c r="G805" s="3"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1">
+    <row r="806" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F806" s="3"/>
       <c r="G806" s="3"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1">
+    <row r="807" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F807" s="3"/>
       <c r="G807" s="3"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1">
+    <row r="808" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F808" s="3"/>
       <c r="G808" s="3"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1">
+    <row r="809" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F809" s="3"/>
       <c r="G809" s="3"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1">
+    <row r="810" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F810" s="3"/>
       <c r="G810" s="3"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1">
+    <row r="811" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F811" s="3"/>
       <c r="G811" s="3"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1">
+    <row r="812" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F812" s="3"/>
       <c r="G812" s="3"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1">
+    <row r="813" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F813" s="3"/>
       <c r="G813" s="3"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1">
+    <row r="814" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F814" s="3"/>
       <c r="G814" s="3"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1">
+    <row r="815" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F815" s="3"/>
       <c r="G815" s="3"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1">
+    <row r="816" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F816" s="3"/>
       <c r="G816" s="3"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1">
+    <row r="817" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F817" s="3"/>
       <c r="G817" s="3"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1">
+    <row r="818" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F818" s="3"/>
       <c r="G818" s="3"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1">
+    <row r="819" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F819" s="3"/>
       <c r="G819" s="3"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1">
+    <row r="820" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F820" s="3"/>
       <c r="G820" s="3"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1">
+    <row r="821" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F821" s="3"/>
       <c r="G821" s="3"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1">
+    <row r="822" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F822" s="3"/>
       <c r="G822" s="3"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1">
+    <row r="823" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F823" s="3"/>
       <c r="G823" s="3"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1">
+    <row r="824" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F824" s="3"/>
       <c r="G824" s="3"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1">
+    <row r="825" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F825" s="3"/>
       <c r="G825" s="3"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1">
+    <row r="826" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F826" s="3"/>
       <c r="G826" s="3"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1">
+    <row r="827" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F827" s="3"/>
       <c r="G827" s="3"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1">
+    <row r="828" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F828" s="3"/>
       <c r="G828" s="3"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1">
+    <row r="829" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F829" s="3"/>
       <c r="G829" s="3"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1">
+    <row r="830" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F830" s="3"/>
       <c r="G830" s="3"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1">
+    <row r="831" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F831" s="3"/>
       <c r="G831" s="3"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1">
+    <row r="832" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F832" s="3"/>
       <c r="G832" s="3"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1">
+    <row r="833" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F833" s="3"/>
       <c r="G833" s="3"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1">
+    <row r="834" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F834" s="3"/>
       <c r="G834" s="3"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1">
+    <row r="835" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F835" s="3"/>
       <c r="G835" s="3"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1">
+    <row r="836" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F836" s="3"/>
       <c r="G836" s="3"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1">
+    <row r="837" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F837" s="3"/>
       <c r="G837" s="3"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1">
+    <row r="838" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F838" s="3"/>
       <c r="G838" s="3"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1">
+    <row r="839" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F839" s="3"/>
       <c r="G839" s="3"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1">
+    <row r="840" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F840" s="3"/>
       <c r="G840" s="3"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1">
+    <row r="841" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F841" s="3"/>
       <c r="G841" s="3"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1">
+    <row r="842" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F842" s="3"/>
       <c r="G842" s="3"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1">
+    <row r="843" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F843" s="3"/>
       <c r="G843" s="3"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1">
+    <row r="844" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F844" s="3"/>
       <c r="G844" s="3"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1">
+    <row r="845" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F845" s="3"/>
       <c r="G845" s="3"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1">
+    <row r="846" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F846" s="3"/>
       <c r="G846" s="3"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1">
+    <row r="847" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F847" s="3"/>
       <c r="G847" s="3"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F848" s="3"/>
       <c r="G848" s="3"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1">
+    <row r="849" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F849" s="3"/>
       <c r="G849" s="3"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1">
+    <row r="850" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F850" s="3"/>
       <c r="G850" s="3"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1">
+    <row r="851" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F851" s="3"/>
       <c r="G851" s="3"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1">
+    <row r="852" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F852" s="3"/>
       <c r="G852" s="3"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1">
+    <row r="853" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F853" s="3"/>
       <c r="G853" s="3"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1">
+    <row r="854" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F854" s="3"/>
       <c r="G854" s="3"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1">
+    <row r="855" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F855" s="3"/>
       <c r="G855" s="3"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1">
+    <row r="856" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F856" s="3"/>
       <c r="G856" s="3"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1">
+    <row r="857" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F857" s="3"/>
       <c r="G857" s="3"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1">
+    <row r="858" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F858" s="3"/>
       <c r="G858" s="3"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1">
+    <row r="859" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F859" s="3"/>
       <c r="G859" s="3"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1">
+    <row r="860" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F860" s="3"/>
       <c r="G860" s="3"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1">
+    <row r="861" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F861" s="3"/>
       <c r="G861" s="3"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1">
+    <row r="862" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F862" s="3"/>
       <c r="G862" s="3"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1">
+    <row r="863" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F863" s="3"/>
       <c r="G863" s="3"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1">
+    <row r="864" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F864" s="3"/>
       <c r="G864" s="3"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1">
+    <row r="865" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F865" s="3"/>
       <c r="G865" s="3"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1">
+    <row r="866" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F866" s="3"/>
       <c r="G866" s="3"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1">
+    <row r="867" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F867" s="3"/>
       <c r="G867" s="3"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1">
+    <row r="868" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F868" s="3"/>
       <c r="G868" s="3"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1">
+    <row r="869" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F869" s="3"/>
       <c r="G869" s="3"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1">
+    <row r="870" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F870" s="3"/>
       <c r="G870" s="3"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1">
+    <row r="871" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F871" s="3"/>
       <c r="G871" s="3"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1">
+    <row r="872" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F872" s="3"/>
       <c r="G872" s="3"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1">
+    <row r="873" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F873" s="3"/>
       <c r="G873" s="3"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1">
+    <row r="874" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F874" s="3"/>
       <c r="G874" s="3"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1">
+    <row r="875" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F875" s="3"/>
       <c r="G875" s="3"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1">
+    <row r="876" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F876" s="3"/>
       <c r="G876" s="3"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1">
+    <row r="877" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F877" s="3"/>
       <c r="G877" s="3"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1">
+    <row r="878" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F878" s="3"/>
       <c r="G878" s="3"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1">
+    <row r="879" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F879" s="3"/>
       <c r="G879" s="3"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1">
+    <row r="880" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F880" s="3"/>
       <c r="G880" s="3"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1">
+    <row r="881" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F881" s="3"/>
       <c r="G881" s="3"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1">
+    <row r="882" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F882" s="3"/>
       <c r="G882" s="3"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1">
+    <row r="883" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F883" s="3"/>
       <c r="G883" s="3"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1">
+    <row r="884" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F884" s="3"/>
       <c r="G884" s="3"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1">
+    <row r="885" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F885" s="3"/>
       <c r="G885" s="3"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1">
+    <row r="886" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F886" s="3"/>
       <c r="G886" s="3"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1">
+    <row r="887" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F887" s="3"/>
       <c r="G887" s="3"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1">
+    <row r="888" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F888" s="3"/>
       <c r="G888" s="3"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1">
+    <row r="889" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F889" s="3"/>
       <c r="G889" s="3"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1">
+    <row r="890" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F890" s="3"/>
       <c r="G890" s="3"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1">
+    <row r="891" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F891" s="3"/>
       <c r="G891" s="3"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1">
+    <row r="892" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F892" s="3"/>
       <c r="G892" s="3"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1">
+    <row r="893" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F893" s="3"/>
       <c r="G893" s="3"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1">
+    <row r="894" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F894" s="3"/>
       <c r="G894" s="3"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1">
+    <row r="895" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F895" s="3"/>
       <c r="G895" s="3"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1">
+    <row r="896" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F896" s="3"/>
       <c r="G896" s="3"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1">
+    <row r="897" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F897" s="3"/>
       <c r="G897" s="3"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1">
+    <row r="898" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F898" s="3"/>
       <c r="G898" s="3"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1">
+    <row r="899" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F899" s="3"/>
       <c r="G899" s="3"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1">
+    <row r="900" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F900" s="3"/>
       <c r="G900" s="3"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1">
+    <row r="901" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F901" s="3"/>
       <c r="G901" s="3"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1">
+    <row r="902" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F902" s="3"/>
       <c r="G902" s="3"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1">
+    <row r="903" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F903" s="3"/>
       <c r="G903" s="3"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1">
+    <row r="904" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F904" s="3"/>
       <c r="G904" s="3"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1">
+    <row r="905" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F905" s="3"/>
       <c r="G905" s="3"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1">
+    <row r="906" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F906" s="3"/>
       <c r="G906" s="3"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1">
+    <row r="907" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F907" s="3"/>
       <c r="G907" s="3"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1">
+    <row r="908" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F908" s="3"/>
       <c r="G908" s="3"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1">
+    <row r="909" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F909" s="3"/>
       <c r="G909" s="3"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1">
+    <row r="910" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F910" s="3"/>
       <c r="G910" s="3"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1">
+    <row r="911" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F911" s="3"/>
       <c r="G911" s="3"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1">
+    <row r="912" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F912" s="3"/>
       <c r="G912" s="3"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1">
+    <row r="913" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F913" s="3"/>
       <c r="G913" s="3"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1">
+    <row r="914" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F914" s="3"/>
       <c r="G914" s="3"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1">
+    <row r="915" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F915" s="3"/>
       <c r="G915" s="3"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1">
+    <row r="916" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F916" s="3"/>
       <c r="G916" s="3"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1">
+    <row r="917" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F917" s="3"/>
       <c r="G917" s="3"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1">
+    <row r="918" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F918" s="3"/>
       <c r="G918" s="3"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1">
+    <row r="919" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F919" s="3"/>
       <c r="G919" s="3"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1">
+    <row r="920" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F920" s="3"/>
       <c r="G920" s="3"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1">
+    <row r="921" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F921" s="3"/>
       <c r="G921" s="3"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1">
+    <row r="922" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F922" s="3"/>
       <c r="G922" s="3"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1">
+    <row r="923" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F923" s="3"/>
       <c r="G923" s="3"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1">
+    <row r="924" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F924" s="3"/>
       <c r="G924" s="3"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1">
+    <row r="925" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F925" s="3"/>
       <c r="G925" s="3"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1">
+    <row r="926" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F926" s="3"/>
       <c r="G926" s="3"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1">
+    <row r="927" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F927" s="3"/>
       <c r="G927" s="3"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1">
+    <row r="928" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F928" s="3"/>
       <c r="G928" s="3"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1">
+    <row r="929" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F929" s="3"/>
       <c r="G929" s="3"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1">
+    <row r="930" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F930" s="3"/>
       <c r="G930" s="3"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1">
+    <row r="931" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F931" s="3"/>
       <c r="G931" s="3"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1">
+    <row r="932" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F932" s="3"/>
       <c r="G932" s="3"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1">
+    <row r="933" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F933" s="3"/>
       <c r="G933" s="3"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1">
+    <row r="934" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F934" s="3"/>
       <c r="G934" s="3"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1">
+    <row r="935" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F935" s="3"/>
       <c r="G935" s="3"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1">
+    <row r="936" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F936" s="3"/>
       <c r="G936" s="3"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1">
+    <row r="937" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F937" s="3"/>
       <c r="G937" s="3"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1">
+    <row r="938" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F938" s="3"/>
       <c r="G938" s="3"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1">
+    <row r="939" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F939" s="3"/>
       <c r="G939" s="3"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1">
+    <row r="940" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F940" s="3"/>
       <c r="G940" s="3"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1">
+    <row r="941" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F941" s="3"/>
       <c r="G941" s="3"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1">
+    <row r="942" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F942" s="3"/>
       <c r="G942" s="3"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1">
+    <row r="943" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F943" s="3"/>
       <c r="G943" s="3"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1">
+    <row r="944" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F944" s="3"/>
       <c r="G944" s="3"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1">
+    <row r="945" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F945" s="3"/>
       <c r="G945" s="3"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1">
+    <row r="946" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F946" s="3"/>
       <c r="G946" s="3"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1">
+    <row r="947" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F947" s="3"/>
       <c r="G947" s="3"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1">
+    <row r="948" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F948" s="3"/>
       <c r="G948" s="3"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1">
+    <row r="949" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F949" s="3"/>
       <c r="G949" s="3"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1">
+    <row r="950" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F950" s="3"/>
       <c r="G950" s="3"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1">
+    <row r="951" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F951" s="3"/>
       <c r="G951" s="3"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1">
+    <row r="952" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F952" s="3"/>
       <c r="G952" s="3"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1">
+    <row r="953" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F953" s="3"/>
       <c r="G953" s="3"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1">
+    <row r="954" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F954" s="3"/>
       <c r="G954" s="3"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1">
+    <row r="955" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F955" s="3"/>
       <c r="G955" s="3"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1">
+    <row r="956" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F956" s="3"/>
       <c r="G956" s="3"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1">
+    <row r="957" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F957" s="3"/>
       <c r="G957" s="3"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1">
+    <row r="958" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F958" s="3"/>
       <c r="G958" s="3"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1">
+    <row r="959" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F959" s="3"/>
       <c r="G959" s="3"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1">
+    <row r="960" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F960" s="3"/>
       <c r="G960" s="3"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1">
+    <row r="961" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F961" s="3"/>
       <c r="G961" s="3"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1">
+    <row r="962" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F962" s="3"/>
       <c r="G962" s="3"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1">
+    <row r="963" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F963" s="3"/>
       <c r="G963" s="3"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1">
+    <row r="964" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F964" s="3"/>
       <c r="G964" s="3"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1">
+    <row r="965" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F965" s="3"/>
       <c r="G965" s="3"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1">
+    <row r="966" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F966" s="3"/>
       <c r="G966" s="3"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1">
+    <row r="967" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F967" s="3"/>
       <c r="G967" s="3"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1">
+    <row r="968" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F968" s="3"/>
       <c r="G968" s="3"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1">
+    <row r="969" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F969" s="3"/>
       <c r="G969" s="3"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1">
+    <row r="970" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F970" s="3"/>
       <c r="G970" s="3"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1">
+    <row r="971" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F971" s="3"/>
       <c r="G971" s="3"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1">
+    <row r="972" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F972" s="3"/>
       <c r="G972" s="3"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1">
+    <row r="973" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F973" s="3"/>
       <c r="G973" s="3"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1">
+    <row r="974" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F974" s="3"/>
       <c r="G974" s="3"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1">
+    <row r="975" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F975" s="3"/>
       <c r="G975" s="3"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1">
+    <row r="976" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F976" s="3"/>
       <c r="G976" s="3"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1">
+    <row r="977" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F977" s="3"/>
       <c r="G977" s="3"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1">
+    <row r="978" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F978" s="3"/>
       <c r="G978" s="3"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1">
+    <row r="979" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F979" s="3"/>
       <c r="G979" s="3"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F980" s="3"/>
       <c r="G980" s="3"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F981" s="3"/>
       <c r="G981" s="3"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F982" s="3"/>
       <c r="G982" s="3"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F983" s="3"/>
       <c r="G983" s="3"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F984" s="3"/>
       <c r="G984" s="3"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F985" s="3"/>
       <c r="G985" s="3"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F986" s="3"/>
       <c r="G986" s="3"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F987" s="3"/>
       <c r="G987" s="3"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1">
+    <row r="988" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F988" s="3"/>
       <c r="G988" s="3"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
+    <row r="989" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F989" s="3"/>
       <c r="G989" s="3"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1">
+    <row r="990" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F990" s="3"/>
       <c r="G990" s="3"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1">
+    <row r="991" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F991" s="3"/>
       <c r="G991" s="3"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1">
+    <row r="992" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F992" s="3"/>
       <c r="G992" s="3"/>
     </row>
-    <row r="993" ht="15.75" customHeight="1">
+    <row r="993" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F993" s="3"/>
       <c r="G993" s="3"/>
     </row>
-    <row r="994" ht="15.75" customHeight="1">
+    <row r="994" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F994" s="3"/>
       <c r="G994" s="3"/>
     </row>
-    <row r="995" ht="15.75" customHeight="1">
+    <row r="995" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F995" s="3"/>
       <c r="G995" s="3"/>
     </row>
-    <row r="996" ht="15.75" customHeight="1">
+    <row r="996" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F996" s="3"/>
       <c r="G996" s="3"/>
     </row>
-    <row r="997" ht="15.75" customHeight="1">
-      <c r="F997" s="3"/>
-      <c r="G997" s="3"/>
-    </row>
-    <row r="998" ht="15.75" customHeight="1">
-      <c r="F998" s="3"/>
-      <c r="G998" s="3"/>
-    </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:A997" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Copia de 2019-02-28_Training sample pour l'ordonnancement_Cellule Robotisée_Rev1.xlsx
+++ b/Copia de 2019-02-28_Training sample pour l'ordonnancement_Cellule Robotisée_Rev1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pasantia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03F1960D-F164-4812-A37A-38CBD2D9AF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83087774-EDA9-4525-B523-917427F302E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="données" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">données!$A$1:$A$997</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">données!$A$1:$L$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t># pièce</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>53842</t>
-  </si>
-  <si>
-    <t>15243</t>
   </si>
   <si>
     <t>80744</t>
@@ -575,10 +572,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L996"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -628,7 +626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -642,27 +640,27 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="5">
-        <f t="shared" ref="H2:H78" si="0">B2+C2</f>
+        <f t="shared" ref="H2:H77" si="0">B2+C2</f>
         <v>6.3179550000000004</v>
       </c>
       <c r="I2" s="6">
-        <f t="shared" ref="I2:I78" si="1">IF(AND(NOT(ISBLANK(F2)),NOT(ISBLANK(G2))),2,1)</f>
+        <f t="shared" ref="I2:I77" si="1">IF(AND(NOT(ISBLANK(F2)),NOT(ISBLANK(G2))),2,1)</f>
         <v>1</v>
       </c>
       <c r="J2" s="6">
-        <f t="shared" ref="J2:J78" si="2">IF(ISBLANK(D2),0,1)</f>
+        <f t="shared" ref="J2:J77" si="2">IF(ISBLANK(D2),0,1)</f>
         <v>0</v>
       </c>
       <c r="K2" s="6">
-        <f t="shared" ref="K2:K78" si="3">IF(ISBLANK(G2),F2,G2)</f>
+        <f t="shared" ref="K2:K77" si="3">IF(ISBLANK(G2),F2,G2)</f>
         <v>1</v>
       </c>
       <c r="L2" s="6">
-        <f t="shared" ref="L2:L78" si="4">IF(ISBLANK(G2),2,F2)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+        <f t="shared" ref="L2:L77" si="4">IF(ISBLANK(G2),2,F2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -696,7 +694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -730,7 +728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -800,7 +798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -834,7 +832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -868,7 +866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -906,7 +904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -944,7 +942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -978,7 +976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -1012,7 +1010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -1046,7 +1044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
@@ -1552,7 +1550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
@@ -1586,7 +1584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
@@ -1656,7 +1654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
@@ -1690,7 +1688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>41</v>
       </c>
@@ -1760,7 +1758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>43</v>
       </c>
@@ -1902,7 +1900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -2049,27 +2047,23 @@
         <v>51</v>
       </c>
       <c r="B42" s="4">
-        <v>19.733854999999998</v>
-      </c>
-      <c r="C42" s="4">
-        <v>8.9113800000000012</v>
-      </c>
+        <v>17.530999999999999</v>
+      </c>
+      <c r="C42" s="4"/>
       <c r="D42" s="3">
         <v>1</v>
       </c>
       <c r="F42" s="3">
-        <v>2</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G42" s="3"/>
       <c r="H42" s="5">
         <f t="shared" si="0"/>
-        <v>28.645235</v>
+        <v>17.530999999999999</v>
       </c>
       <c r="I42" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" s="6">
         <f t="shared" si="2"/>
@@ -2089,7 +2083,7 @@
         <v>52</v>
       </c>
       <c r="B43" s="4">
-        <v>17.530999999999999</v>
+        <v>32.674809999999994</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="3">
@@ -2101,7 +2095,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="5">
         <f t="shared" si="0"/>
-        <v>17.530999999999999</v>
+        <v>32.674809999999994</v>
       </c>
       <c r="I43" s="6">
         <f t="shared" si="1"/>
@@ -2161,23 +2155,27 @@
         <v>54</v>
       </c>
       <c r="B45" s="4">
-        <v>32.674809999999994</v>
-      </c>
-      <c r="C45" s="4"/>
+        <v>5.1226349999999998</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1.5764499999999999</v>
+      </c>
       <c r="D45" s="3">
         <v>1</v>
       </c>
       <c r="F45" s="3">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
       <c r="H45" s="5">
         <f t="shared" si="0"/>
-        <v>32.674809999999994</v>
+        <v>6.6990850000000002</v>
       </c>
       <c r="I45" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" s="6">
         <f t="shared" si="2"/>
@@ -2196,11 +2194,9 @@
       <c r="A46" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="4">
-        <v>5.1226349999999998</v>
-      </c>
+      <c r="B46" s="4"/>
       <c r="C46" s="4">
-        <v>1.5764499999999999</v>
+        <v>1.9446000000000001</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
@@ -2208,16 +2204,14 @@
       <c r="F46" s="3">
         <v>2</v>
       </c>
-      <c r="G46" s="3">
-        <v>1</v>
-      </c>
+      <c r="G46" s="3"/>
       <c r="H46" s="5">
         <f t="shared" si="0"/>
-        <v>6.6990850000000002</v>
+        <v>1.9446000000000001</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" s="6">
         <f t="shared" si="2"/>
@@ -2225,31 +2219,29 @@
       </c>
       <c r="K46" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L46" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4">
-        <v>1.9446000000000001</v>
-      </c>
-      <c r="D47" s="3">
-        <v>1</v>
-      </c>
+      <c r="B47" s="4">
+        <v>2.1283750000000001</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="3"/>
       <c r="F47" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="5">
         <f t="shared" si="0"/>
-        <v>1.9446000000000001</v>
+        <v>2.1283750000000001</v>
       </c>
       <c r="I47" s="6">
         <f t="shared" si="1"/>
@@ -2257,37 +2249,41 @@
       </c>
       <c r="J47" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L47" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B48" s="4">
-        <v>2.1283750000000001</v>
-      </c>
-      <c r="C48" s="4"/>
+        <v>8.8796999999999997</v>
+      </c>
+      <c r="C48" s="4">
+        <v>7.5849000000000002</v>
+      </c>
       <c r="D48" s="3"/>
       <c r="F48" s="3">
         <v>1</v>
       </c>
-      <c r="G48" s="3"/>
+      <c r="G48" s="3">
+        <v>2</v>
+      </c>
       <c r="H48" s="5">
         <f t="shared" si="0"/>
-        <v>2.1283750000000001</v>
+        <v>16.464600000000001</v>
       </c>
       <c r="I48" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" s="6">
         <f t="shared" si="2"/>
@@ -2295,37 +2291,33 @@
       </c>
       <c r="K48" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L48" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="4">
-        <v>8.8796999999999997</v>
-      </c>
-      <c r="C49" s="4">
-        <v>7.5849000000000002</v>
-      </c>
+        <v>5.4827500000000002</v>
+      </c>
+      <c r="C49" s="4"/>
       <c r="D49" s="3"/>
       <c r="F49" s="3">
         <v>1</v>
       </c>
-      <c r="G49" s="3">
-        <v>2</v>
-      </c>
+      <c r="G49" s="3"/>
       <c r="H49" s="5">
         <f t="shared" si="0"/>
-        <v>16.464600000000001</v>
+        <v>5.4827500000000002</v>
       </c>
       <c r="I49" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" s="6">
         <f t="shared" si="2"/>
@@ -2333,19 +2325,19 @@
       </c>
       <c r="K49" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L49" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B50" s="4">
-        <v>5.4827500000000002</v>
+        <v>24.641690000000001</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="3"/>
@@ -2355,7 +2347,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="5">
         <f t="shared" si="0"/>
-        <v>5.4827500000000002</v>
+        <v>24.641690000000001</v>
       </c>
       <c r="I50" s="6">
         <f t="shared" si="1"/>
@@ -2374,12 +2366,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B51" s="4">
-        <v>24.641690000000001</v>
+        <v>26.595600000000001</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="3"/>
@@ -2389,7 +2381,7 @@
       <c r="G51" s="3"/>
       <c r="H51" s="5">
         <f t="shared" si="0"/>
-        <v>24.641690000000001</v>
+        <v>26.595600000000001</v>
       </c>
       <c r="I51" s="6">
         <f t="shared" si="1"/>
@@ -2408,12 +2400,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B52" s="4">
-        <v>26.595600000000001</v>
+        <v>28.8416</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="3"/>
@@ -2423,7 +2415,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="5">
         <f t="shared" si="0"/>
-        <v>26.595600000000001</v>
+        <v>28.8416</v>
       </c>
       <c r="I52" s="6">
         <f t="shared" si="1"/>
@@ -2442,12 +2434,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B53" s="4">
-        <v>28.8416</v>
+        <v>26.826000000000001</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="3"/>
@@ -2457,7 +2449,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="5">
         <f t="shared" si="0"/>
-        <v>28.8416</v>
+        <v>26.826000000000001</v>
       </c>
       <c r="I53" s="6">
         <f t="shared" si="1"/>
@@ -2476,7 +2468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>63</v>
       </c>
@@ -2510,12 +2502,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B55" s="4">
-        <v>26.826000000000001</v>
+        <v>2.7665500000000001</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="3"/>
@@ -2525,7 +2517,7 @@
       <c r="G55" s="3"/>
       <c r="H55" s="5">
         <f t="shared" si="0"/>
-        <v>26.826000000000001</v>
+        <v>2.7665500000000001</v>
       </c>
       <c r="I55" s="6">
         <f t="shared" si="1"/>
@@ -2544,12 +2536,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B56" s="4">
-        <v>2.7665500000000001</v>
+        <v>26.595600000000001</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="3"/>
@@ -2559,7 +2551,7 @@
       <c r="G56" s="3"/>
       <c r="H56" s="5">
         <f t="shared" si="0"/>
-        <v>2.7665500000000001</v>
+        <v>26.595600000000001</v>
       </c>
       <c r="I56" s="6">
         <f t="shared" si="1"/>
@@ -2578,22 +2570,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="4">
-        <v>26.595600000000001</v>
-      </c>
-      <c r="C57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4">
+        <v>0.97684000000000004</v>
+      </c>
       <c r="D57" s="3"/>
       <c r="F57" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="5">
         <f t="shared" si="0"/>
-        <v>26.595600000000001</v>
+        <v>0.97684000000000004</v>
       </c>
       <c r="I57" s="6">
         <f t="shared" si="1"/>
@@ -2605,33 +2597,37 @@
       </c>
       <c r="K57" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L57" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="4"/>
+      <c r="B58" s="4">
+        <v>1.8894500000000001</v>
+      </c>
       <c r="C58" s="4">
-        <v>0.97684000000000004</v>
+        <v>0.76963999999999999</v>
       </c>
       <c r="D58" s="3"/>
       <c r="F58" s="3">
         <v>2</v>
       </c>
-      <c r="G58" s="3"/>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
       <c r="H58" s="5">
         <f t="shared" si="0"/>
-        <v>0.97684000000000004</v>
+        <v>2.65909</v>
       </c>
       <c r="I58" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" s="6">
         <f t="shared" si="2"/>
@@ -2639,37 +2635,33 @@
       </c>
       <c r="K58" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L58" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="4">
-        <v>1.8894500000000001</v>
-      </c>
+      <c r="B59" s="4"/>
       <c r="C59" s="4">
-        <v>0.76963999999999999</v>
+        <v>2.9621200000000001</v>
       </c>
       <c r="D59" s="3"/>
       <c r="F59" s="3">
         <v>2</v>
       </c>
-      <c r="G59" s="3">
-        <v>1</v>
-      </c>
+      <c r="G59" s="3"/>
       <c r="H59" s="5">
         <f t="shared" si="0"/>
-        <v>2.65909</v>
+        <v>2.9621200000000001</v>
       </c>
       <c r="I59" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" s="6">
         <f t="shared" si="2"/>
@@ -2677,33 +2669,37 @@
       </c>
       <c r="K59" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L59" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="4"/>
+      <c r="B60" s="4">
+        <v>11.119145</v>
+      </c>
       <c r="C60" s="4">
-        <v>2.9621200000000001</v>
+        <v>9.3242449999999995</v>
       </c>
       <c r="D60" s="3"/>
       <c r="F60" s="3">
-        <v>2</v>
-      </c>
-      <c r="G60" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2</v>
+      </c>
       <c r="H60" s="5">
         <f t="shared" si="0"/>
-        <v>2.9621200000000001</v>
+        <v>20.443390000000001</v>
       </c>
       <c r="I60" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" s="6">
         <f t="shared" si="2"/>
@@ -2715,10 +2711,10 @@
       </c>
       <c r="L60" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>70</v>
       </c>
@@ -2756,30 +2752,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="4">
-        <v>11.119145</v>
-      </c>
+      <c r="B62" s="4"/>
       <c r="C62" s="4">
-        <v>9.3242449999999995</v>
+        <v>7.7475549999999993</v>
       </c>
       <c r="D62" s="3"/>
       <c r="F62" s="3">
-        <v>1</v>
-      </c>
-      <c r="G62" s="3">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G62" s="3"/>
       <c r="H62" s="5">
         <f t="shared" si="0"/>
-        <v>20.443390000000001</v>
+        <v>7.7475549999999993</v>
       </c>
       <c r="I62" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" s="6">
         <f t="shared" si="2"/>
@@ -2791,29 +2783,33 @@
       </c>
       <c r="L62" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="4"/>
+      <c r="B63" s="4">
+        <v>2.3997299999999999</v>
+      </c>
       <c r="C63" s="4">
-        <v>7.7475549999999993</v>
+        <v>4.4859499999999999</v>
       </c>
       <c r="D63" s="3"/>
       <c r="F63" s="3">
-        <v>2</v>
-      </c>
-      <c r="G63" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G63" s="3">
+        <v>2</v>
+      </c>
       <c r="H63" s="5">
         <f t="shared" si="0"/>
-        <v>7.7475549999999993</v>
+        <v>6.8856799999999998</v>
       </c>
       <c r="I63" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" s="6">
         <f t="shared" si="2"/>
@@ -2825,7 +2821,7 @@
       </c>
       <c r="L63" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2833,37 +2829,35 @@
         <v>73</v>
       </c>
       <c r="B64" s="4">
-        <v>2.3997299999999999</v>
-      </c>
-      <c r="C64" s="4">
-        <v>4.4859499999999999</v>
-      </c>
-      <c r="D64" s="3"/>
+        <v>14.928884999999999</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="3">
+        <v>1</v>
+      </c>
       <c r="F64" s="3">
         <v>1</v>
       </c>
-      <c r="G64" s="3">
-        <v>2</v>
-      </c>
+      <c r="G64" s="3"/>
       <c r="H64" s="5">
         <f t="shared" si="0"/>
-        <v>6.8856799999999998</v>
+        <v>14.928884999999999</v>
       </c>
       <c r="I64" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L64" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2871,7 +2865,7 @@
         <v>74</v>
       </c>
       <c r="B65" s="4">
-        <v>14.928884999999999</v>
+        <v>9.4292499999999997</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="3">
@@ -2883,7 +2877,7 @@
       <c r="G65" s="3"/>
       <c r="H65" s="5">
         <f t="shared" si="0"/>
-        <v>14.928884999999999</v>
+        <v>9.4292499999999997</v>
       </c>
       <c r="I65" s="6">
         <f t="shared" si="1"/>
@@ -2902,24 +2896,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B66" s="4">
-        <v>9.4292499999999997</v>
-      </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="3">
-        <v>1</v>
-      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4">
+        <v>14.712494999999999</v>
+      </c>
+      <c r="D66" s="3"/>
       <c r="F66" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="5">
         <f t="shared" si="0"/>
-        <v>9.4292499999999997</v>
+        <v>14.712494999999999</v>
       </c>
       <c r="I66" s="6">
         <f t="shared" si="1"/>
@@ -2927,24 +2919,24 @@
       </c>
       <c r="J66" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L66" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4">
-        <v>14.712494999999999</v>
+        <v>1.9446000000000001</v>
       </c>
       <c r="D67" s="3"/>
       <c r="F67" s="3">
@@ -2953,7 +2945,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="5">
         <f t="shared" si="0"/>
-        <v>14.712494999999999</v>
+        <v>1.9446000000000001</v>
       </c>
       <c r="I67" s="6">
         <f t="shared" si="1"/>
@@ -2972,22 +2964,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4">
-        <v>1.9446000000000001</v>
-      </c>
+      <c r="B68" s="4">
+        <v>8.7520000000000007</v>
+      </c>
+      <c r="C68" s="4"/>
       <c r="D68" s="3"/>
       <c r="F68" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="5">
         <f t="shared" si="0"/>
-        <v>1.9446000000000001</v>
+        <v>8.7520000000000007</v>
       </c>
       <c r="I68" s="6">
         <f t="shared" si="1"/>
@@ -2999,19 +2991,19 @@
       </c>
       <c r="K68" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L68" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B69" s="4">
-        <v>8.7520000000000007</v>
+        <v>4.82843</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="3"/>
@@ -3021,7 +3013,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="5">
         <f t="shared" si="0"/>
-        <v>8.7520000000000007</v>
+        <v>4.82843</v>
       </c>
       <c r="I69" s="6">
         <f t="shared" si="1"/>
@@ -3040,12 +3032,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B70" s="4">
-        <v>4.82843</v>
+        <v>4.5644499999999999</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="3"/>
@@ -3055,7 +3047,7 @@
       <c r="G70" s="3"/>
       <c r="H70" s="5">
         <f t="shared" si="0"/>
-        <v>4.82843</v>
+        <v>4.5644499999999999</v>
       </c>
       <c r="I70" s="6">
         <f t="shared" si="1"/>
@@ -3074,26 +3066,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B71" s="4">
-        <v>4.5644499999999999</v>
-      </c>
-      <c r="C71" s="4"/>
+        <v>1.5787599999999999</v>
+      </c>
+      <c r="C71" s="4">
+        <v>15.547134999999999</v>
+      </c>
       <c r="D71" s="3"/>
       <c r="F71" s="3">
-        <v>1</v>
-      </c>
-      <c r="G71" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
       <c r="H71" s="5">
         <f t="shared" si="0"/>
-        <v>4.5644499999999999</v>
+        <v>17.125895</v>
       </c>
       <c r="I71" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" s="6">
         <f t="shared" si="2"/>
@@ -3108,30 +3104,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B72" s="4">
-        <v>1.5787599999999999</v>
-      </c>
-      <c r="C72" s="4">
-        <v>15.547134999999999</v>
-      </c>
+        <v>2.1283750000000001</v>
+      </c>
+      <c r="C72" s="4"/>
       <c r="D72" s="3"/>
       <c r="F72" s="3">
-        <v>2</v>
-      </c>
-      <c r="G72" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G72" s="3"/>
       <c r="H72" s="5">
         <f t="shared" si="0"/>
-        <v>17.125895</v>
+        <v>2.1283750000000001</v>
       </c>
       <c r="I72" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" s="6">
         <f t="shared" si="2"/>
@@ -3146,12 +3138,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B73" s="4">
-        <v>2.1283750000000001</v>
+        <v>0.93293000000000004</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="3"/>
@@ -3161,7 +3153,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="5">
         <f t="shared" si="0"/>
-        <v>2.1283750000000001</v>
+        <v>0.93293000000000004</v>
       </c>
       <c r="I73" s="6">
         <f t="shared" si="1"/>
@@ -3180,12 +3172,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B74" s="4">
-        <v>0.93293000000000004</v>
+        <v>1.8118000000000001</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="3"/>
@@ -3195,7 +3187,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="5">
         <f t="shared" si="0"/>
-        <v>0.93293000000000004</v>
+        <v>1.8118000000000001</v>
       </c>
       <c r="I74" s="6">
         <f t="shared" si="1"/>
@@ -3214,7 +3206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>84</v>
       </c>
@@ -3253,33 +3245,39 @@
         <v>85</v>
       </c>
       <c r="B76" s="4">
-        <v>1.8118000000000001</v>
-      </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="3"/>
+        <v>6.9123549999999998</v>
+      </c>
+      <c r="C76" s="4">
+        <v>5.79</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1</v>
+      </c>
       <c r="F76" s="3">
         <v>1</v>
       </c>
-      <c r="G76" s="3"/>
+      <c r="G76" s="3">
+        <v>2</v>
+      </c>
       <c r="H76" s="5">
         <f t="shared" si="0"/>
-        <v>1.8118000000000001</v>
+        <v>12.702355000000001</v>
       </c>
       <c r="I76" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L76" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3323,44 +3321,8 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B78" s="4">
-        <v>6.9123549999999998</v>
-      </c>
-      <c r="C78" s="4">
-        <v>5.79</v>
-      </c>
-      <c r="D78" s="3">
-        <v>1</v>
-      </c>
-      <c r="F78" s="3">
-        <v>1</v>
-      </c>
-      <c r="G78" s="3">
-        <v>2</v>
-      </c>
-      <c r="H78" s="5">
-        <f t="shared" si="0"/>
-        <v>12.702355000000001</v>
-      </c>
-      <c r="I78" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J78" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K78" s="6">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L78" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
     </row>
     <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F79" s="3"/>
@@ -7030,12 +6992,14 @@
       <c r="F995" s="3"/>
       <c r="G995" s="3"/>
     </row>
-    <row r="996" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F996" s="3"/>
-      <c r="G996" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:A997" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L77" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/Copia de 2019-02-28_Training sample pour l'ordonnancement_Cellule Robotisée_Rev1.xlsx
+++ b/Copia de 2019-02-28_Training sample pour l'ordonnancement_Cellule Robotisée_Rev1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pasantia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83087774-EDA9-4525-B523-917427F302E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD27E0CD-2D65-4007-BB16-57D1A1254633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="données" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">données!$A$1:$L$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">données!$A$1:$L$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t># pièce</t>
   </si>
@@ -135,9 +135,6 @@
     <t>51523</t>
   </si>
   <si>
-    <t>43524</t>
-  </si>
-  <si>
     <t>61625</t>
   </si>
   <si>
@@ -199,9 +196,6 @@
   </si>
   <si>
     <t>41846</t>
-  </si>
-  <si>
-    <t>38047</t>
   </si>
   <si>
     <t>62448</t>
@@ -572,11 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L995"/>
+  <dimension ref="A1:L993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -626,7 +619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -640,27 +633,27 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="5">
-        <f t="shared" ref="H2:H77" si="0">B2+C2</f>
+        <f t="shared" ref="H2:H75" si="0">B2+C2</f>
         <v>6.3179550000000004</v>
       </c>
       <c r="I2" s="6">
-        <f t="shared" ref="I2:I77" si="1">IF(AND(NOT(ISBLANK(F2)),NOT(ISBLANK(G2))),2,1)</f>
+        <f t="shared" ref="I2:I75" si="1">IF(AND(NOT(ISBLANK(F2)),NOT(ISBLANK(G2))),2,1)</f>
         <v>1</v>
       </c>
       <c r="J2" s="6">
-        <f t="shared" ref="J2:J77" si="2">IF(ISBLANK(D2),0,1)</f>
+        <f t="shared" ref="J2:J75" si="2">IF(ISBLANK(D2),0,1)</f>
         <v>0</v>
       </c>
       <c r="K2" s="6">
-        <f t="shared" ref="K2:K77" si="3">IF(ISBLANK(G2),F2,G2)</f>
+        <f t="shared" ref="K2:K75" si="3">IF(ISBLANK(G2),F2,G2)</f>
         <v>1</v>
       </c>
       <c r="L2" s="6">
-        <f t="shared" ref="L2:L77" si="4">IF(ISBLANK(G2),2,F2)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="L2:L75" si="4">IF(ISBLANK(G2),2,F2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -694,7 +687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -728,7 +721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -798,7 +791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -832,7 +825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -866,7 +859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -904,7 +897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -942,7 +935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -976,7 +969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -1010,7 +1003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -1044,7 +1037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
@@ -1370,11 +1363,9 @@
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="4">
-        <v>8.32</v>
-      </c>
+      <c r="B23" s="4"/>
       <c r="C23" s="4">
-        <v>8.599219999999999</v>
+        <v>5.21835</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -1382,16 +1373,14 @@
       <c r="F23" s="3">
         <v>2</v>
       </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
+      <c r="G23" s="3"/>
       <c r="H23" s="5">
         <f t="shared" si="0"/>
-        <v>16.919219999999999</v>
+        <v>5.21835</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" s="6">
         <f t="shared" si="2"/>
@@ -1399,7 +1388,7 @@
       </c>
       <c r="K23" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23" s="6">
         <f t="shared" si="4"/>
@@ -1412,7 +1401,7 @@
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4">
-        <v>5.21835</v>
+        <v>8.1133500000000005</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -1423,7 +1412,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="5">
         <f t="shared" si="0"/>
-        <v>5.21835</v>
+        <v>8.1133500000000005</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" si="1"/>
@@ -1446,20 +1435,20 @@
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4">
-        <v>8.1133500000000005</v>
-      </c>
+      <c r="B25" s="4">
+        <v>33.323399999999999</v>
+      </c>
+      <c r="C25" s="4"/>
       <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="F25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="5">
         <f t="shared" si="0"/>
-        <v>8.1133500000000005</v>
+        <v>33.323399999999999</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="1"/>
@@ -1471,7 +1460,7 @@
       </c>
       <c r="K25" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="4"/>
@@ -1482,20 +1471,20 @@
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="4">
-        <v>33.323399999999999</v>
-      </c>
-      <c r="C26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4">
+        <v>3.3992800000000001</v>
+      </c>
       <c r="D26" s="3">
         <v>1</v>
       </c>
       <c r="F26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="5">
         <f t="shared" si="0"/>
-        <v>33.323399999999999</v>
+        <v>3.3992800000000001</v>
       </c>
       <c r="I26" s="6">
         <f t="shared" si="1"/>
@@ -1507,7 +1496,7 @@
       </c>
       <c r="K26" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26" s="6">
         <f t="shared" si="4"/>
@@ -1518,20 +1507,18 @@
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4">
-        <v>3.3992800000000001</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
+      <c r="B27" s="4">
+        <v>3.4674999999999998</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
       <c r="F27" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="5">
         <f t="shared" si="0"/>
-        <v>3.3992800000000001</v>
+        <v>3.4674999999999998</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="1"/>
@@ -1539,33 +1526,33 @@
       </c>
       <c r="J27" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="4">
-        <v>3.4674999999999998</v>
-      </c>
-      <c r="C28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4">
+        <v>2.7459750000000001</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="F28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="5">
         <f t="shared" si="0"/>
-        <v>3.4674999999999998</v>
+        <v>2.7459750000000001</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" si="1"/>
@@ -1577,29 +1564,31 @@
       </c>
       <c r="K28" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4">
-        <v>2.7459750000000001</v>
-      </c>
-      <c r="D29" s="3"/>
+        <v>5.7393899999999993</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
       <c r="F29" s="3">
         <v>2</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="5">
         <f t="shared" si="0"/>
-        <v>2.7459750000000001</v>
+        <v>5.7393899999999993</v>
       </c>
       <c r="I29" s="6">
         <f t="shared" si="1"/>
@@ -1607,7 +1596,7 @@
       </c>
       <c r="J29" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" si="3"/>
@@ -1624,18 +1613,16 @@
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
-        <v>5.7393899999999993</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
+        <v>2.9125000000000001</v>
+      </c>
+      <c r="D30" s="3"/>
       <c r="F30" s="3">
         <v>2</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="5">
         <f t="shared" si="0"/>
-        <v>5.7393899999999993</v>
+        <v>2.9125000000000001</v>
       </c>
       <c r="I30" s="6">
         <f t="shared" si="1"/>
@@ -1643,7 +1630,7 @@
       </c>
       <c r="J30" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" si="3"/>
@@ -1654,13 +1641,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
-        <v>2.9125000000000001</v>
+        <v>2.7459750000000001</v>
       </c>
       <c r="D31" s="3"/>
       <c r="F31" s="3">
@@ -1669,7 +1656,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="5">
         <f t="shared" si="0"/>
-        <v>2.9125000000000001</v>
+        <v>2.7459750000000001</v>
       </c>
       <c r="I31" s="6">
         <f t="shared" si="1"/>
@@ -1688,22 +1675,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
-        <v>2.7459750000000001</v>
-      </c>
-      <c r="D32" s="3"/>
+        <v>2.9125000000000001</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
       <c r="F32" s="3">
         <v>2</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="5">
         <f t="shared" si="0"/>
-        <v>2.7459750000000001</v>
+        <v>2.9125000000000001</v>
       </c>
       <c r="I32" s="6">
         <f t="shared" si="1"/>
@@ -1711,7 +1700,7 @@
       </c>
       <c r="J32" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="6">
         <f t="shared" si="3"/>
@@ -1728,18 +1717,16 @@
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
-        <v>2.9125000000000001</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
+        <v>6.6361999999999997</v>
+      </c>
+      <c r="D33" s="3"/>
       <c r="F33" s="3">
         <v>2</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="5">
         <f t="shared" si="0"/>
-        <v>2.9125000000000001</v>
+        <v>6.6361999999999997</v>
       </c>
       <c r="I33" s="6">
         <f t="shared" si="1"/>
@@ -1747,7 +1734,7 @@
       </c>
       <c r="J33" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="6">
         <f t="shared" si="3"/>
@@ -1758,22 +1745,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
-        <v>6.6361999999999997</v>
-      </c>
-      <c r="D34" s="3"/>
+        <v>7.7179000000000002</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
       <c r="F34" s="3">
         <v>2</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="5">
         <f t="shared" si="0"/>
-        <v>6.6361999999999997</v>
+        <v>7.7179000000000002</v>
       </c>
       <c r="I34" s="6">
         <f t="shared" si="1"/>
@@ -1781,7 +1770,7 @@
       </c>
       <c r="J34" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="6">
         <f t="shared" si="3"/>
@@ -1798,7 +1787,7 @@
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
-        <v>7.7179000000000002</v>
+        <v>6.8976499999999996</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -1809,7 +1798,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="5">
         <f t="shared" si="0"/>
-        <v>7.7179000000000002</v>
+        <v>6.8976499999999996</v>
       </c>
       <c r="I35" s="6">
         <f t="shared" si="1"/>
@@ -1834,7 +1823,7 @@
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4">
-        <v>6.8976499999999996</v>
+        <v>7.7179000000000002</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -1845,7 +1834,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="5">
         <f t="shared" si="0"/>
-        <v>6.8976499999999996</v>
+        <v>7.7179000000000002</v>
       </c>
       <c r="I36" s="6">
         <f t="shared" si="1"/>
@@ -1870,18 +1859,16 @@
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4">
-        <v>7.7179000000000002</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
+        <v>6.6361999999999997</v>
+      </c>
+      <c r="D37" s="3"/>
       <c r="F37" s="3">
         <v>2</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="5">
         <f t="shared" si="0"/>
-        <v>7.7179000000000002</v>
+        <v>6.6361999999999997</v>
       </c>
       <c r="I37" s="6">
         <f t="shared" si="1"/>
@@ -1889,7 +1876,7 @@
       </c>
       <c r="J37" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="6">
         <f t="shared" si="3"/>
@@ -1900,22 +1887,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4">
-        <v>6.6361999999999997</v>
-      </c>
-      <c r="D38" s="3"/>
+        <v>9.6173500000000001</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
       <c r="F38" s="3">
         <v>2</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="5">
         <f t="shared" si="0"/>
-        <v>6.6361999999999997</v>
+        <v>9.6173500000000001</v>
       </c>
       <c r="I38" s="6">
         <f t="shared" si="1"/>
@@ -1923,7 +1912,7 @@
       </c>
       <c r="J38" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="6">
         <f t="shared" si="3"/>
@@ -1976,7 +1965,7 @@
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4">
-        <v>9.6173500000000001</v>
+        <v>6.8976499999999996</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -1987,7 +1976,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="5">
         <f t="shared" si="0"/>
-        <v>9.6173500000000001</v>
+        <v>6.8976499999999996</v>
       </c>
       <c r="I40" s="6">
         <f t="shared" si="1"/>
@@ -2010,20 +1999,20 @@
       <c r="A41" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4">
-        <v>6.8976499999999996</v>
-      </c>
+      <c r="B41" s="4">
+        <v>17.530999999999999</v>
+      </c>
+      <c r="C41" s="4"/>
       <c r="D41" s="3">
         <v>1</v>
       </c>
       <c r="F41" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="5">
         <f t="shared" si="0"/>
-        <v>6.8976499999999996</v>
+        <v>17.530999999999999</v>
       </c>
       <c r="I41" s="6">
         <f t="shared" si="1"/>
@@ -2035,7 +2024,7 @@
       </c>
       <c r="K41" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L41" s="6">
         <f t="shared" si="4"/>
@@ -2047,7 +2036,7 @@
         <v>51</v>
       </c>
       <c r="B42" s="4">
-        <v>17.530999999999999</v>
+        <v>32.674809999999994</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="3">
@@ -2059,7 +2048,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="5">
         <f t="shared" si="0"/>
-        <v>17.530999999999999</v>
+        <v>32.674809999999994</v>
       </c>
       <c r="I42" s="6">
         <f t="shared" si="1"/>
@@ -2118,20 +2107,20 @@
       <c r="A44" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="4">
-        <v>32.674809999999994</v>
-      </c>
-      <c r="C44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4">
+        <v>1.9446000000000001</v>
+      </c>
       <c r="D44" s="3">
         <v>1</v>
       </c>
       <c r="F44" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="5">
         <f t="shared" si="0"/>
-        <v>32.674809999999994</v>
+        <v>1.9446000000000001</v>
       </c>
       <c r="I44" s="6">
         <f t="shared" si="1"/>
@@ -2143,7 +2132,7 @@
       </c>
       <c r="K44" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L44" s="6">
         <f t="shared" si="4"/>
@@ -2155,31 +2144,25 @@
         <v>54</v>
       </c>
       <c r="B45" s="4">
-        <v>5.1226349999999998</v>
-      </c>
-      <c r="C45" s="4">
-        <v>1.5764499999999999</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1</v>
-      </c>
+        <v>2.1283750000000001</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="3"/>
       <c r="F45" s="3">
-        <v>2</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G45" s="3"/>
       <c r="H45" s="5">
         <f t="shared" si="0"/>
-        <v>6.6990850000000002</v>
+        <v>2.1283750000000001</v>
       </c>
       <c r="I45" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="6">
         <f t="shared" si="3"/>
@@ -2194,28 +2177,30 @@
       <c r="A46" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="4"/>
+      <c r="B46" s="4">
+        <v>8.8796999999999997</v>
+      </c>
       <c r="C46" s="4">
-        <v>1.9446000000000001</v>
-      </c>
-      <c r="D46" s="3">
-        <v>1</v>
-      </c>
+        <v>7.5849000000000002</v>
+      </c>
+      <c r="D46" s="3"/>
       <c r="F46" s="3">
-        <v>2</v>
-      </c>
-      <c r="G46" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>2</v>
+      </c>
       <c r="H46" s="5">
         <f t="shared" si="0"/>
-        <v>1.9446000000000001</v>
+        <v>16.464600000000001</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="6">
         <f t="shared" si="3"/>
@@ -2223,15 +2208,15 @@
       </c>
       <c r="L46" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B47" s="4">
-        <v>2.1283750000000001</v>
+        <v>5.4827500000000002</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="3"/>
@@ -2241,7 +2226,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="5">
         <f t="shared" si="0"/>
-        <v>2.1283750000000001</v>
+        <v>5.4827500000000002</v>
       </c>
       <c r="I47" s="6">
         <f t="shared" si="1"/>
@@ -2260,30 +2245,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B48" s="4">
-        <v>8.8796999999999997</v>
-      </c>
-      <c r="C48" s="4">
-        <v>7.5849000000000002</v>
-      </c>
+        <v>24.641690000000001</v>
+      </c>
+      <c r="C48" s="4"/>
       <c r="D48" s="3"/>
       <c r="F48" s="3">
         <v>1</v>
       </c>
-      <c r="G48" s="3">
-        <v>2</v>
-      </c>
+      <c r="G48" s="3"/>
       <c r="H48" s="5">
         <f t="shared" si="0"/>
-        <v>16.464600000000001</v>
+        <v>24.641690000000001</v>
       </c>
       <c r="I48" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" s="6">
         <f t="shared" si="2"/>
@@ -2291,19 +2272,19 @@
       </c>
       <c r="K48" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L48" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="4">
-        <v>5.4827500000000002</v>
+        <v>26.595600000000001</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="3"/>
@@ -2313,7 +2294,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="5">
         <f t="shared" si="0"/>
-        <v>5.4827500000000002</v>
+        <v>26.595600000000001</v>
       </c>
       <c r="I49" s="6">
         <f t="shared" si="1"/>
@@ -2332,12 +2313,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B50" s="4">
-        <v>24.641690000000001</v>
+        <v>28.8416</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="3"/>
@@ -2347,7 +2328,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="5">
         <f t="shared" si="0"/>
-        <v>24.641690000000001</v>
+        <v>28.8416</v>
       </c>
       <c r="I50" s="6">
         <f t="shared" si="1"/>
@@ -2366,12 +2347,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B51" s="4">
-        <v>26.595600000000001</v>
+        <v>26.826000000000001</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="3"/>
@@ -2381,7 +2362,7 @@
       <c r="G51" s="3"/>
       <c r="H51" s="5">
         <f t="shared" si="0"/>
-        <v>26.595600000000001</v>
+        <v>26.826000000000001</v>
       </c>
       <c r="I51" s="6">
         <f t="shared" si="1"/>
@@ -2400,12 +2381,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B52" s="4">
-        <v>28.8416</v>
+        <v>26.826000000000001</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="3"/>
@@ -2415,7 +2396,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="5">
         <f t="shared" si="0"/>
-        <v>28.8416</v>
+        <v>26.826000000000001</v>
       </c>
       <c r="I52" s="6">
         <f t="shared" si="1"/>
@@ -2434,12 +2415,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B53" s="4">
-        <v>26.826000000000001</v>
+        <v>2.7665500000000001</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="3"/>
@@ -2449,7 +2430,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="5">
         <f t="shared" si="0"/>
-        <v>26.826000000000001</v>
+        <v>2.7665500000000001</v>
       </c>
       <c r="I53" s="6">
         <f t="shared" si="1"/>
@@ -2468,12 +2449,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B54" s="4">
-        <v>26.826000000000001</v>
+        <v>26.595600000000001</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="3"/>
@@ -2483,7 +2464,7 @@
       <c r="G54" s="3"/>
       <c r="H54" s="5">
         <f t="shared" si="0"/>
-        <v>26.826000000000001</v>
+        <v>26.595600000000001</v>
       </c>
       <c r="I54" s="6">
         <f t="shared" si="1"/>
@@ -2502,22 +2483,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="4">
-        <v>2.7665500000000001</v>
-      </c>
-      <c r="C55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4">
+        <v>0.97684000000000004</v>
+      </c>
       <c r="D55" s="3"/>
       <c r="F55" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="5">
         <f t="shared" si="0"/>
-        <v>2.7665500000000001</v>
+        <v>0.97684000000000004</v>
       </c>
       <c r="I55" s="6">
         <f t="shared" si="1"/>
@@ -2529,33 +2510,37 @@
       </c>
       <c r="K55" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L55" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B56" s="4">
-        <v>26.595600000000001</v>
-      </c>
-      <c r="C56" s="4"/>
+        <v>1.8894500000000001</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.76963999999999999</v>
+      </c>
       <c r="D56" s="3"/>
       <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
       <c r="H56" s="5">
         <f t="shared" si="0"/>
-        <v>26.595600000000001</v>
+        <v>2.65909</v>
       </c>
       <c r="I56" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" s="6">
         <f t="shared" si="2"/>
@@ -2570,13 +2555,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4">
-        <v>0.97684000000000004</v>
+        <v>2.9621200000000001</v>
       </c>
       <c r="D57" s="3"/>
       <c r="F57" s="3">
@@ -2585,7 +2570,7 @@
       <c r="G57" s="3"/>
       <c r="H57" s="5">
         <f t="shared" si="0"/>
-        <v>0.97684000000000004</v>
+        <v>2.9621200000000001</v>
       </c>
       <c r="I57" s="6">
         <f t="shared" si="1"/>
@@ -2604,26 +2589,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B58" s="4">
-        <v>1.8894500000000001</v>
+        <v>11.119145</v>
       </c>
       <c r="C58" s="4">
-        <v>0.76963999999999999</v>
+        <v>9.3242449999999995</v>
       </c>
       <c r="D58" s="3"/>
       <c r="F58" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" s="5">
         <f t="shared" si="0"/>
-        <v>2.65909</v>
+        <v>20.443390000000001</v>
       </c>
       <c r="I58" s="6">
         <f t="shared" si="1"/>
@@ -2635,33 +2620,37 @@
       </c>
       <c r="K58" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L58" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="4"/>
+      <c r="B59" s="4">
+        <v>11.119145</v>
+      </c>
       <c r="C59" s="4">
-        <v>2.9621200000000001</v>
+        <v>9.3242449999999995</v>
       </c>
       <c r="D59" s="3"/>
       <c r="F59" s="3">
-        <v>2</v>
-      </c>
-      <c r="G59" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G59" s="3">
+        <v>2</v>
+      </c>
       <c r="H59" s="5">
         <f t="shared" si="0"/>
-        <v>2.9621200000000001</v>
+        <v>20.443390000000001</v>
       </c>
       <c r="I59" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" s="6">
         <f t="shared" si="2"/>
@@ -2673,33 +2662,29 @@
       </c>
       <c r="L59" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="4">
-        <v>11.119145</v>
-      </c>
+      <c r="B60" s="4"/>
       <c r="C60" s="4">
-        <v>9.3242449999999995</v>
+        <v>7.7475549999999993</v>
       </c>
       <c r="D60" s="3"/>
       <c r="F60" s="3">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G60" s="3"/>
       <c r="H60" s="5">
         <f t="shared" si="0"/>
-        <v>20.443390000000001</v>
+        <v>7.7475549999999993</v>
       </c>
       <c r="I60" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" s="6">
         <f t="shared" si="2"/>
@@ -2711,18 +2696,18 @@
       </c>
       <c r="L60" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B61" s="4">
-        <v>11.119145</v>
+        <v>2.3997299999999999</v>
       </c>
       <c r="C61" s="4">
-        <v>9.3242449999999995</v>
+        <v>4.4859499999999999</v>
       </c>
       <c r="D61" s="3"/>
       <c r="F61" s="3">
@@ -2733,7 +2718,7 @@
       </c>
       <c r="H61" s="5">
         <f t="shared" si="0"/>
-        <v>20.443390000000001</v>
+        <v>6.8856799999999998</v>
       </c>
       <c r="I61" s="6">
         <f t="shared" si="1"/>
@@ -2752,22 +2737,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4">
-        <v>7.7475549999999993</v>
-      </c>
-      <c r="D62" s="3"/>
+      <c r="B62" s="4">
+        <v>14.928884999999999</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
       <c r="F62" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="5">
         <f t="shared" si="0"/>
-        <v>7.7475549999999993</v>
+        <v>14.928884999999999</v>
       </c>
       <c r="I62" s="6">
         <f t="shared" si="1"/>
@@ -2775,73 +2762,69 @@
       </c>
       <c r="J62" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L62" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B63" s="4">
-        <v>2.3997299999999999</v>
-      </c>
-      <c r="C63" s="4">
-        <v>4.4859499999999999</v>
-      </c>
-      <c r="D63" s="3"/>
+        <v>9.4292499999999997</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="3">
+        <v>1</v>
+      </c>
       <c r="F63" s="3">
         <v>1</v>
       </c>
-      <c r="G63" s="3">
-        <v>2</v>
-      </c>
+      <c r="G63" s="3"/>
       <c r="H63" s="5">
         <f t="shared" si="0"/>
-        <v>6.8856799999999998</v>
+        <v>9.4292499999999997</v>
       </c>
       <c r="I63" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L63" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="4">
-        <v>14.928884999999999</v>
-      </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="3">
-        <v>1</v>
-      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4">
+        <v>14.712494999999999</v>
+      </c>
+      <c r="D64" s="3"/>
       <c r="F64" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="5">
         <f t="shared" si="0"/>
-        <v>14.928884999999999</v>
+        <v>14.712494999999999</v>
       </c>
       <c r="I64" s="6">
         <f t="shared" si="1"/>
@@ -2849,11 +2832,11 @@
       </c>
       <c r="J64" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L64" s="6">
         <f t="shared" si="4"/>
@@ -2864,20 +2847,18 @@
       <c r="A65" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="4">
-        <v>9.4292499999999997</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="3">
-        <v>1</v>
-      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4">
+        <v>1.9446000000000001</v>
+      </c>
+      <c r="D65" s="3"/>
       <c r="F65" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="5">
         <f t="shared" si="0"/>
-        <v>9.4292499999999997</v>
+        <v>1.9446000000000001</v>
       </c>
       <c r="I65" s="6">
         <f t="shared" si="1"/>
@@ -2885,33 +2866,33 @@
       </c>
       <c r="J65" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L65" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4">
-        <v>14.712494999999999</v>
-      </c>
+      <c r="B66" s="4">
+        <v>8.7520000000000007</v>
+      </c>
+      <c r="C66" s="4"/>
       <c r="D66" s="3"/>
       <c r="F66" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="5">
         <f t="shared" si="0"/>
-        <v>14.712494999999999</v>
+        <v>8.7520000000000007</v>
       </c>
       <c r="I66" s="6">
         <f t="shared" si="1"/>
@@ -2923,29 +2904,29 @@
       </c>
       <c r="K66" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L66" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4">
-        <v>1.9446000000000001</v>
-      </c>
+      <c r="B67" s="4">
+        <v>4.82843</v>
+      </c>
+      <c r="C67" s="4"/>
       <c r="D67" s="3"/>
       <c r="F67" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="5">
         <f t="shared" si="0"/>
-        <v>1.9446000000000001</v>
+        <v>4.82843</v>
       </c>
       <c r="I67" s="6">
         <f t="shared" si="1"/>
@@ -2957,19 +2938,19 @@
       </c>
       <c r="K67" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L67" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B68" s="4">
-        <v>8.7520000000000007</v>
+        <v>4.5644499999999999</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="3"/>
@@ -2979,7 +2960,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="5">
         <f t="shared" si="0"/>
-        <v>8.7520000000000007</v>
+        <v>4.5644499999999999</v>
       </c>
       <c r="I68" s="6">
         <f t="shared" si="1"/>
@@ -2998,26 +2979,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B69" s="4">
-        <v>4.82843</v>
-      </c>
-      <c r="C69" s="4"/>
+        <v>1.5787599999999999</v>
+      </c>
+      <c r="C69" s="4">
+        <v>15.547134999999999</v>
+      </c>
       <c r="D69" s="3"/>
       <c r="F69" s="3">
-        <v>1</v>
-      </c>
-      <c r="G69" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
       <c r="H69" s="5">
         <f t="shared" si="0"/>
-        <v>4.82843</v>
+        <v>17.125895</v>
       </c>
       <c r="I69" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" s="6">
         <f t="shared" si="2"/>
@@ -3032,12 +3017,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B70" s="4">
-        <v>4.5644499999999999</v>
+        <v>2.1283750000000001</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="3"/>
@@ -3047,7 +3032,7 @@
       <c r="G70" s="3"/>
       <c r="H70" s="5">
         <f t="shared" si="0"/>
-        <v>4.5644499999999999</v>
+        <v>2.1283750000000001</v>
       </c>
       <c r="I70" s="6">
         <f t="shared" si="1"/>
@@ -3066,30 +3051,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B71" s="4">
-        <v>1.5787599999999999</v>
-      </c>
-      <c r="C71" s="4">
-        <v>15.547134999999999</v>
-      </c>
+        <v>0.93293000000000004</v>
+      </c>
+      <c r="C71" s="4"/>
       <c r="D71" s="3"/>
       <c r="F71" s="3">
-        <v>2</v>
-      </c>
-      <c r="G71" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G71" s="3"/>
       <c r="H71" s="5">
         <f t="shared" si="0"/>
-        <v>17.125895</v>
+        <v>0.93293000000000004</v>
       </c>
       <c r="I71" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" s="6">
         <f t="shared" si="2"/>
@@ -3104,12 +3085,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B72" s="4">
-        <v>2.1283750000000001</v>
+        <v>1.8118000000000001</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="3"/>
@@ -3119,7 +3100,7 @@
       <c r="G72" s="3"/>
       <c r="H72" s="5">
         <f t="shared" si="0"/>
-        <v>2.1283750000000001</v>
+        <v>1.8118000000000001</v>
       </c>
       <c r="I72" s="6">
         <f t="shared" si="1"/>
@@ -3138,12 +3119,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B73" s="4">
-        <v>0.93293000000000004</v>
+        <v>1.8118000000000001</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="3"/>
@@ -3153,7 +3134,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="5">
         <f t="shared" si="0"/>
-        <v>0.93293000000000004</v>
+        <v>1.8118000000000001</v>
       </c>
       <c r="I73" s="6">
         <f t="shared" si="1"/>
@@ -3172,153 +3153,93 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B74" s="4">
-        <v>1.8118000000000001</v>
-      </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="3"/>
+        <v>6.9123549999999998</v>
+      </c>
+      <c r="C74" s="4">
+        <v>5.79</v>
+      </c>
+      <c r="D74" s="3">
+        <v>1</v>
+      </c>
       <c r="F74" s="3">
         <v>1</v>
       </c>
-      <c r="G74" s="3"/>
+      <c r="G74" s="3">
+        <v>2</v>
+      </c>
       <c r="H74" s="5">
         <f t="shared" si="0"/>
-        <v>1.8118000000000001</v>
+        <v>12.702355000000001</v>
       </c>
       <c r="I74" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L74" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B75" s="4">
-        <v>1.8118000000000001</v>
-      </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="3"/>
+        <v>6.9123549999999998</v>
+      </c>
+      <c r="C75" s="4">
+        <v>5.79</v>
+      </c>
+      <c r="D75" s="3">
+        <v>1</v>
+      </c>
       <c r="F75" s="3">
         <v>1</v>
       </c>
-      <c r="G75" s="3"/>
+      <c r="G75" s="3">
+        <v>2</v>
+      </c>
       <c r="H75" s="5">
         <f t="shared" si="0"/>
-        <v>1.8118000000000001</v>
+        <v>12.702355000000001</v>
       </c>
       <c r="I75" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L75" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B76" s="4">
-        <v>6.9123549999999998</v>
-      </c>
-      <c r="C76" s="4">
-        <v>5.79</v>
-      </c>
-      <c r="D76" s="3">
-        <v>1</v>
-      </c>
-      <c r="F76" s="3">
-        <v>1</v>
-      </c>
-      <c r="G76" s="3">
-        <v>2</v>
-      </c>
-      <c r="H76" s="5">
-        <f t="shared" si="0"/>
-        <v>12.702355000000001</v>
-      </c>
-      <c r="I76" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J76" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K76" s="6">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L76" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
     </row>
     <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B77" s="4">
-        <v>6.9123549999999998</v>
-      </c>
-      <c r="C77" s="4">
-        <v>5.79</v>
-      </c>
-      <c r="D77" s="3">
-        <v>1</v>
-      </c>
-      <c r="F77" s="3">
-        <v>1</v>
-      </c>
-      <c r="G77" s="3">
-        <v>2</v>
-      </c>
-      <c r="H77" s="5">
-        <f t="shared" si="0"/>
-        <v>12.702355000000001</v>
-      </c>
-      <c r="I77" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J77" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K77" s="6">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L77" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
     </row>
     <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F78" s="3"/>
@@ -6984,22 +6905,8 @@
       <c r="F993" s="3"/>
       <c r="G993" s="3"/>
     </row>
-    <row r="994" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F994" s="3"/>
-      <c r="G994" s="3"/>
-    </row>
-    <row r="995" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F995" s="3"/>
-      <c r="G995" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:L77" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L75" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/Copia de 2019-02-28_Training sample pour l'ordonnancement_Cellule Robotisée_Rev1.xlsx
+++ b/Copia de 2019-02-28_Training sample pour l'ordonnancement_Cellule Robotisée_Rev1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pasantia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD27E0CD-2D65-4007-BB16-57D1A1254633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BE46CE-F178-4BBE-A8A3-ECDD922A6E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Copia de 2019-02-28_Training sample pour l'ordonnancement_Cellule Robotisée_Rev1.xlsx
+++ b/Copia de 2019-02-28_Training sample pour l'ordonnancement_Cellule Robotisée_Rev1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pasantia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BE46CE-F178-4BBE-A8A3-ECDD922A6E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563E79BA-11A8-445F-B5C3-C217D76FE889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="données" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">données!$A$1:$L$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">données!$A$1:$L$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t># pièce</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>88645</t>
-  </si>
-  <si>
-    <t>41846</t>
   </si>
   <si>
     <t>62448</t>
@@ -566,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L993"/>
+  <dimension ref="A1:L992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -633,23 +630,23 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="5">
-        <f t="shared" ref="H2:H75" si="0">B2+C2</f>
+        <f t="shared" ref="H2:H74" si="0">B2+C2</f>
         <v>6.3179550000000004</v>
       </c>
       <c r="I2" s="6">
-        <f t="shared" ref="I2:I75" si="1">IF(AND(NOT(ISBLANK(F2)),NOT(ISBLANK(G2))),2,1)</f>
+        <f t="shared" ref="I2:I74" si="1">IF(AND(NOT(ISBLANK(F2)),NOT(ISBLANK(G2))),2,1)</f>
         <v>1</v>
       </c>
       <c r="J2" s="6">
-        <f t="shared" ref="J2:J75" si="2">IF(ISBLANK(D2),0,1)</f>
+        <f t="shared" ref="J2:J74" si="2">IF(ISBLANK(D2),0,1)</f>
         <v>0</v>
       </c>
       <c r="K2" s="6">
-        <f t="shared" ref="K2:K75" si="3">IF(ISBLANK(G2),F2,G2)</f>
+        <f t="shared" ref="K2:K74" si="3">IF(ISBLANK(G2),F2,G2)</f>
         <v>1</v>
       </c>
       <c r="L2" s="6">
-        <f t="shared" ref="L2:L75" si="4">IF(ISBLANK(G2),2,F2)</f>
+        <f t="shared" ref="L2:L74" si="4">IF(ISBLANK(G2),2,F2)</f>
         <v>2</v>
       </c>
     </row>
@@ -2071,20 +2068,20 @@
       <c r="A43" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="4">
-        <v>32.674809999999994</v>
-      </c>
-      <c r="C43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4">
+        <v>1.9446000000000001</v>
+      </c>
       <c r="D43" s="3">
         <v>1</v>
       </c>
       <c r="F43" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="5">
         <f t="shared" si="0"/>
-        <v>32.674809999999994</v>
+        <v>1.9446000000000001</v>
       </c>
       <c r="I43" s="6">
         <f t="shared" si="1"/>
@@ -2096,7 +2093,7 @@
       </c>
       <c r="K43" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L43" s="6">
         <f t="shared" si="4"/>
@@ -2107,20 +2104,18 @@
       <c r="A44" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4">
-        <v>1.9446000000000001</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1</v>
-      </c>
+      <c r="B44" s="4">
+        <v>2.1283750000000001</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="3"/>
       <c r="F44" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="5">
         <f t="shared" si="0"/>
-        <v>1.9446000000000001</v>
+        <v>2.1283750000000001</v>
       </c>
       <c r="I44" s="6">
         <f t="shared" si="1"/>
@@ -2128,11 +2123,11 @@
       </c>
       <c r="J44" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L44" s="6">
         <f t="shared" si="4"/>
@@ -2144,21 +2139,25 @@
         <v>54</v>
       </c>
       <c r="B45" s="4">
-        <v>2.1283750000000001</v>
-      </c>
-      <c r="C45" s="4"/>
+        <v>8.8796999999999997</v>
+      </c>
+      <c r="C45" s="4">
+        <v>7.5849000000000002</v>
+      </c>
       <c r="D45" s="3"/>
       <c r="F45" s="3">
         <v>1</v>
       </c>
-      <c r="G45" s="3"/>
+      <c r="G45" s="3">
+        <v>2</v>
+      </c>
       <c r="H45" s="5">
         <f t="shared" si="0"/>
-        <v>2.1283750000000001</v>
+        <v>16.464600000000001</v>
       </c>
       <c r="I45" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" s="6">
         <f t="shared" si="2"/>
@@ -2166,11 +2165,11 @@
       </c>
       <c r="K45" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L45" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2178,25 +2177,21 @@
         <v>55</v>
       </c>
       <c r="B46" s="4">
-        <v>8.8796999999999997</v>
-      </c>
-      <c r="C46" s="4">
-        <v>7.5849000000000002</v>
-      </c>
+        <v>5.4827500000000002</v>
+      </c>
+      <c r="C46" s="4"/>
       <c r="D46" s="3"/>
       <c r="F46" s="3">
         <v>1</v>
       </c>
-      <c r="G46" s="3">
-        <v>2</v>
-      </c>
+      <c r="G46" s="3"/>
       <c r="H46" s="5">
         <f t="shared" si="0"/>
-        <v>16.464600000000001</v>
+        <v>5.4827500000000002</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" s="6">
         <f t="shared" si="2"/>
@@ -2204,11 +2199,11 @@
       </c>
       <c r="K46" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L46" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2216,7 +2211,7 @@
         <v>56</v>
       </c>
       <c r="B47" s="4">
-        <v>5.4827500000000002</v>
+        <v>24.641690000000001</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="3"/>
@@ -2226,7 +2221,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="5">
         <f t="shared" si="0"/>
-        <v>5.4827500000000002</v>
+        <v>24.641690000000001</v>
       </c>
       <c r="I47" s="6">
         <f t="shared" si="1"/>
@@ -2250,7 +2245,7 @@
         <v>57</v>
       </c>
       <c r="B48" s="4">
-        <v>24.641690000000001</v>
+        <v>26.595600000000001</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="3"/>
@@ -2260,7 +2255,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="5">
         <f t="shared" si="0"/>
-        <v>24.641690000000001</v>
+        <v>26.595600000000001</v>
       </c>
       <c r="I48" s="6">
         <f t="shared" si="1"/>
@@ -2284,7 +2279,7 @@
         <v>58</v>
       </c>
       <c r="B49" s="4">
-        <v>26.595600000000001</v>
+        <v>28.8416</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="3"/>
@@ -2294,7 +2289,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="5">
         <f t="shared" si="0"/>
-        <v>26.595600000000001</v>
+        <v>28.8416</v>
       </c>
       <c r="I49" s="6">
         <f t="shared" si="1"/>
@@ -2318,7 +2313,7 @@
         <v>59</v>
       </c>
       <c r="B50" s="4">
-        <v>28.8416</v>
+        <v>26.826000000000001</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="3"/>
@@ -2328,7 +2323,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="5">
         <f t="shared" si="0"/>
-        <v>28.8416</v>
+        <v>26.826000000000001</v>
       </c>
       <c r="I50" s="6">
         <f t="shared" si="1"/>
@@ -2386,7 +2381,7 @@
         <v>61</v>
       </c>
       <c r="B52" s="4">
-        <v>26.826000000000001</v>
+        <v>2.7665500000000001</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="3"/>
@@ -2396,7 +2391,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="5">
         <f t="shared" si="0"/>
-        <v>26.826000000000001</v>
+        <v>2.7665500000000001</v>
       </c>
       <c r="I52" s="6">
         <f t="shared" si="1"/>
@@ -2420,7 +2415,7 @@
         <v>62</v>
       </c>
       <c r="B53" s="4">
-        <v>2.7665500000000001</v>
+        <v>26.595600000000001</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="3"/>
@@ -2430,7 +2425,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="5">
         <f t="shared" si="0"/>
-        <v>2.7665500000000001</v>
+        <v>26.595600000000001</v>
       </c>
       <c r="I53" s="6">
         <f t="shared" si="1"/>
@@ -2453,18 +2448,18 @@
       <c r="A54" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="4">
-        <v>26.595600000000001</v>
-      </c>
-      <c r="C54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4">
+        <v>0.97684000000000004</v>
+      </c>
       <c r="D54" s="3"/>
       <c r="F54" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="5">
         <f t="shared" si="0"/>
-        <v>26.595600000000001</v>
+        <v>0.97684000000000004</v>
       </c>
       <c r="I54" s="6">
         <f t="shared" si="1"/>
@@ -2476,7 +2471,7 @@
       </c>
       <c r="K54" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L54" s="6">
         <f t="shared" si="4"/>
@@ -2487,22 +2482,26 @@
       <c r="A55" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="4"/>
+      <c r="B55" s="4">
+        <v>1.8894500000000001</v>
+      </c>
       <c r="C55" s="4">
-        <v>0.97684000000000004</v>
+        <v>0.76963999999999999</v>
       </c>
       <c r="D55" s="3"/>
       <c r="F55" s="3">
         <v>2</v>
       </c>
-      <c r="G55" s="3"/>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
       <c r="H55" s="5">
         <f t="shared" si="0"/>
-        <v>0.97684000000000004</v>
+        <v>2.65909</v>
       </c>
       <c r="I55" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" s="6">
         <f t="shared" si="2"/>
@@ -2510,7 +2509,7 @@
       </c>
       <c r="K55" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L55" s="6">
         <f t="shared" si="4"/>
@@ -2521,26 +2520,22 @@
       <c r="A56" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="4">
-        <v>1.8894500000000001</v>
-      </c>
+      <c r="B56" s="4"/>
       <c r="C56" s="4">
-        <v>0.76963999999999999</v>
+        <v>2.9621200000000001</v>
       </c>
       <c r="D56" s="3"/>
       <c r="F56" s="3">
         <v>2</v>
       </c>
-      <c r="G56" s="3">
-        <v>1</v>
-      </c>
+      <c r="G56" s="3"/>
       <c r="H56" s="5">
         <f t="shared" si="0"/>
-        <v>2.65909</v>
+        <v>2.9621200000000001</v>
       </c>
       <c r="I56" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" s="6">
         <f t="shared" si="2"/>
@@ -2548,7 +2543,7 @@
       </c>
       <c r="K56" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L56" s="6">
         <f t="shared" si="4"/>
@@ -2559,22 +2554,26 @@
       <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="4"/>
+      <c r="B57" s="4">
+        <v>11.119145</v>
+      </c>
       <c r="C57" s="4">
-        <v>2.9621200000000001</v>
+        <v>9.3242449999999995</v>
       </c>
       <c r="D57" s="3"/>
       <c r="F57" s="3">
-        <v>2</v>
-      </c>
-      <c r="G57" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G57" s="3">
+        <v>2</v>
+      </c>
       <c r="H57" s="5">
         <f t="shared" si="0"/>
-        <v>2.9621200000000001</v>
+        <v>20.443390000000001</v>
       </c>
       <c r="I57" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" s="6">
         <f t="shared" si="2"/>
@@ -2586,7 +2585,7 @@
       </c>
       <c r="L57" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2631,26 +2630,22 @@
       <c r="A59" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="4">
-        <v>11.119145</v>
-      </c>
+      <c r="B59" s="4"/>
       <c r="C59" s="4">
-        <v>9.3242449999999995</v>
+        <v>7.7475549999999993</v>
       </c>
       <c r="D59" s="3"/>
       <c r="F59" s="3">
-        <v>1</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G59" s="3"/>
       <c r="H59" s="5">
         <f t="shared" si="0"/>
-        <v>20.443390000000001</v>
+        <v>7.7475549999999993</v>
       </c>
       <c r="I59" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" s="6">
         <f t="shared" si="2"/>
@@ -2662,29 +2657,33 @@
       </c>
       <c r="L59" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="4"/>
+      <c r="B60" s="4">
+        <v>2.3997299999999999</v>
+      </c>
       <c r="C60" s="4">
-        <v>7.7475549999999993</v>
+        <v>4.4859499999999999</v>
       </c>
       <c r="D60" s="3"/>
       <c r="F60" s="3">
-        <v>2</v>
-      </c>
-      <c r="G60" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2</v>
+      </c>
       <c r="H60" s="5">
         <f t="shared" si="0"/>
-        <v>7.7475549999999993</v>
+        <v>6.8856799999999998</v>
       </c>
       <c r="I60" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" s="6">
         <f t="shared" si="2"/>
@@ -2696,7 +2695,7 @@
       </c>
       <c r="L60" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2704,37 +2703,35 @@
         <v>70</v>
       </c>
       <c r="B61" s="4">
-        <v>2.3997299999999999</v>
-      </c>
-      <c r="C61" s="4">
-        <v>4.4859499999999999</v>
-      </c>
-      <c r="D61" s="3"/>
+        <v>14.928884999999999</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
       <c r="F61" s="3">
         <v>1</v>
       </c>
-      <c r="G61" s="3">
-        <v>2</v>
-      </c>
+      <c r="G61" s="3"/>
       <c r="H61" s="5">
         <f t="shared" si="0"/>
-        <v>6.8856799999999998</v>
+        <v>14.928884999999999</v>
       </c>
       <c r="I61" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L61" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2742,7 +2739,7 @@
         <v>71</v>
       </c>
       <c r="B62" s="4">
-        <v>14.928884999999999</v>
+        <v>9.4292499999999997</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="3">
@@ -2754,7 +2751,7 @@
       <c r="G62" s="3"/>
       <c r="H62" s="5">
         <f t="shared" si="0"/>
-        <v>14.928884999999999</v>
+        <v>9.4292499999999997</v>
       </c>
       <c r="I62" s="6">
         <f t="shared" si="1"/>
@@ -2777,20 +2774,18 @@
       <c r="A63" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="4">
-        <v>9.4292499999999997</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="3">
-        <v>1</v>
-      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4">
+        <v>14.712494999999999</v>
+      </c>
+      <c r="D63" s="3"/>
       <c r="F63" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="5">
         <f t="shared" si="0"/>
-        <v>9.4292499999999997</v>
+        <v>14.712494999999999</v>
       </c>
       <c r="I63" s="6">
         <f t="shared" si="1"/>
@@ -2798,11 +2793,11 @@
       </c>
       <c r="J63" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L63" s="6">
         <f t="shared" si="4"/>
@@ -2815,7 +2810,7 @@
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4">
-        <v>14.712494999999999</v>
+        <v>1.9446000000000001</v>
       </c>
       <c r="D64" s="3"/>
       <c r="F64" s="3">
@@ -2824,7 +2819,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="5">
         <f t="shared" si="0"/>
-        <v>14.712494999999999</v>
+        <v>1.9446000000000001</v>
       </c>
       <c r="I64" s="6">
         <f t="shared" si="1"/>
@@ -2847,18 +2842,18 @@
       <c r="A65" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4">
-        <v>1.9446000000000001</v>
-      </c>
+      <c r="B65" s="4">
+        <v>8.7520000000000007</v>
+      </c>
+      <c r="C65" s="4"/>
       <c r="D65" s="3"/>
       <c r="F65" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="5">
         <f t="shared" si="0"/>
-        <v>1.9446000000000001</v>
+        <v>8.7520000000000007</v>
       </c>
       <c r="I65" s="6">
         <f t="shared" si="1"/>
@@ -2870,7 +2865,7 @@
       </c>
       <c r="K65" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L65" s="6">
         <f t="shared" si="4"/>
@@ -2882,7 +2877,7 @@
         <v>75</v>
       </c>
       <c r="B66" s="4">
-        <v>8.7520000000000007</v>
+        <v>4.82843</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="3"/>
@@ -2892,7 +2887,7 @@
       <c r="G66" s="3"/>
       <c r="H66" s="5">
         <f t="shared" si="0"/>
-        <v>8.7520000000000007</v>
+        <v>4.82843</v>
       </c>
       <c r="I66" s="6">
         <f t="shared" si="1"/>
@@ -2916,7 +2911,7 @@
         <v>76</v>
       </c>
       <c r="B67" s="4">
-        <v>4.82843</v>
+        <v>4.5644499999999999</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="3"/>
@@ -2926,7 +2921,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="5">
         <f t="shared" si="0"/>
-        <v>4.82843</v>
+        <v>4.5644499999999999</v>
       </c>
       <c r="I67" s="6">
         <f t="shared" si="1"/>
@@ -2950,21 +2945,25 @@
         <v>77</v>
       </c>
       <c r="B68" s="4">
-        <v>4.5644499999999999</v>
-      </c>
-      <c r="C68" s="4"/>
+        <v>1.5787599999999999</v>
+      </c>
+      <c r="C68" s="4">
+        <v>15.547134999999999</v>
+      </c>
       <c r="D68" s="3"/>
       <c r="F68" s="3">
-        <v>1</v>
-      </c>
-      <c r="G68" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1</v>
+      </c>
       <c r="H68" s="5">
         <f t="shared" si="0"/>
-        <v>4.5644499999999999</v>
+        <v>17.125895</v>
       </c>
       <c r="I68" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" s="6">
         <f t="shared" si="2"/>
@@ -2984,25 +2983,21 @@
         <v>78</v>
       </c>
       <c r="B69" s="4">
-        <v>1.5787599999999999</v>
-      </c>
-      <c r="C69" s="4">
-        <v>15.547134999999999</v>
-      </c>
+        <v>2.1283750000000001</v>
+      </c>
+      <c r="C69" s="4"/>
       <c r="D69" s="3"/>
       <c r="F69" s="3">
-        <v>2</v>
-      </c>
-      <c r="G69" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G69" s="3"/>
       <c r="H69" s="5">
         <f t="shared" si="0"/>
-        <v>17.125895</v>
+        <v>2.1283750000000001</v>
       </c>
       <c r="I69" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" s="6">
         <f t="shared" si="2"/>
@@ -3022,7 +3017,7 @@
         <v>79</v>
       </c>
       <c r="B70" s="4">
-        <v>2.1283750000000001</v>
+        <v>0.93293000000000004</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="3"/>
@@ -3032,7 +3027,7 @@
       <c r="G70" s="3"/>
       <c r="H70" s="5">
         <f t="shared" si="0"/>
-        <v>2.1283750000000001</v>
+        <v>0.93293000000000004</v>
       </c>
       <c r="I70" s="6">
         <f t="shared" si="1"/>
@@ -3056,7 +3051,7 @@
         <v>80</v>
       </c>
       <c r="B71" s="4">
-        <v>0.93293000000000004</v>
+        <v>1.8118000000000001</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="3"/>
@@ -3066,7 +3061,7 @@
       <c r="G71" s="3"/>
       <c r="H71" s="5">
         <f t="shared" si="0"/>
-        <v>0.93293000000000004</v>
+        <v>1.8118000000000001</v>
       </c>
       <c r="I71" s="6">
         <f t="shared" si="1"/>
@@ -3124,33 +3119,39 @@
         <v>82</v>
       </c>
       <c r="B73" s="4">
-        <v>1.8118000000000001</v>
-      </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="3"/>
+        <v>6.9123549999999998</v>
+      </c>
+      <c r="C73" s="4">
+        <v>5.79</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1</v>
+      </c>
       <c r="F73" s="3">
         <v>1</v>
       </c>
-      <c r="G73" s="3"/>
+      <c r="G73" s="3">
+        <v>2</v>
+      </c>
       <c r="H73" s="5">
         <f t="shared" si="0"/>
-        <v>1.8118000000000001</v>
+        <v>12.702355000000001</v>
       </c>
       <c r="I73" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L73" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3194,44 +3195,8 @@
       </c>
     </row>
     <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B75" s="4">
-        <v>6.9123549999999998</v>
-      </c>
-      <c r="C75" s="4">
-        <v>5.79</v>
-      </c>
-      <c r="D75" s="3">
-        <v>1</v>
-      </c>
-      <c r="F75" s="3">
-        <v>1</v>
-      </c>
-      <c r="G75" s="3">
-        <v>2</v>
-      </c>
-      <c r="H75" s="5">
-        <f t="shared" si="0"/>
-        <v>12.702355000000001</v>
-      </c>
-      <c r="I75" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J75" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K75" s="6">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L75" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F76" s="3"/>
@@ -6901,12 +6866,8 @@
       <c r="F992" s="3"/>
       <c r="G992" s="3"/>
     </row>
-    <row r="993" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F993" s="3"/>
-      <c r="G993" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:L75" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L74" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/Copia de 2019-02-28_Training sample pour l'ordonnancement_Cellule Robotisée_Rev1.xlsx
+++ b/Copia de 2019-02-28_Training sample pour l'ordonnancement_Cellule Robotisée_Rev1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pasantia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563E79BA-11A8-445F-B5C3-C217D76FE889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAEDFE1-C2D0-4E40-AA5B-DA66C17953C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="données" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">données!$A$1:$L$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">données!$A$1:$L$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t># pièce</t>
   </si>
@@ -102,9 +102,6 @@
     <t>62510</t>
   </si>
   <si>
-    <t>90911</t>
-  </si>
-  <si>
     <t>21512</t>
   </si>
   <si>
@@ -214,12 +211,6 @@
   </si>
   <si>
     <t>51554</t>
-  </si>
-  <si>
-    <t>30555</t>
-  </si>
-  <si>
-    <t>68056</t>
   </si>
   <si>
     <t>58257</t>
@@ -334,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -348,6 +339,7 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L992"/>
+  <dimension ref="A1:N989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="82" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -581,7 +573,7 @@
     <col min="8" max="21" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -630,27 +622,27 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="5">
-        <f t="shared" ref="H2:H74" si="0">B2+C2</f>
+        <f t="shared" ref="H2:H71" si="0">B2+C2</f>
         <v>6.3179550000000004</v>
       </c>
       <c r="I2" s="6">
-        <f t="shared" ref="I2:I74" si="1">IF(AND(NOT(ISBLANK(F2)),NOT(ISBLANK(G2))),2,1)</f>
+        <f t="shared" ref="I2:I71" si="1">IF(AND(NOT(ISBLANK(F2)),NOT(ISBLANK(G2))),2,1)</f>
         <v>1</v>
       </c>
       <c r="J2" s="6">
-        <f t="shared" ref="J2:J74" si="2">IF(ISBLANK(D2),0,1)</f>
+        <f t="shared" ref="J2:J71" si="2">IF(ISBLANK(D2),0,1)</f>
         <v>0</v>
       </c>
       <c r="K2" s="6">
-        <f t="shared" ref="K2:K74" si="3">IF(ISBLANK(G2),F2,G2)</f>
+        <f t="shared" ref="K2:K71" si="3">IF(ISBLANK(G2),F2,G2)</f>
         <v>1</v>
       </c>
       <c r="L2" s="6">
-        <f t="shared" ref="L2:L74" si="4">IF(ISBLANK(G2),2,F2)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+        <f t="shared" ref="L2:L71" si="4">IF(ISBLANK(G2),2,F2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -684,7 +676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -717,8 +709,9 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -751,8 +744,9 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -787,8 +781,9 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -822,7 +817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -856,7 +851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -894,7 +889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -932,7 +927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -966,22 +961,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4">
-        <v>18.6541</v>
-      </c>
-      <c r="C12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4">
+        <v>3.8270999999999997</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="F12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="5">
         <f t="shared" si="0"/>
-        <v>18.6541</v>
+        <v>3.8270999999999997</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="1"/>
@@ -993,14 +988,14 @@
       </c>
       <c r="K12" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -1034,22 +1029,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
-        <v>3.8270999999999997</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>9.1341400000000004</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
       <c r="F14" s="3">
         <v>2</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="5">
         <f t="shared" si="0"/>
-        <v>3.8270999999999997</v>
+        <v>9.1341400000000004</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="1"/>
@@ -1057,7 +1054,7 @@
       </c>
       <c r="J14" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" si="3"/>
@@ -1068,7 +1065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1104,24 +1101,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4">
-        <v>9.1341400000000004</v>
-      </c>
+      <c r="B16" s="4">
+        <v>33.323399999999999</v>
+      </c>
+      <c r="C16" s="4"/>
       <c r="D16" s="3">
         <v>1</v>
       </c>
       <c r="F16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="5">
         <f t="shared" si="0"/>
-        <v>9.1341400000000004</v>
+        <v>33.323399999999999</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" si="1"/>
@@ -1133,7 +1130,7 @@
       </c>
       <c r="K16" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16" s="6">
         <f t="shared" si="4"/>
@@ -1144,20 +1141,20 @@
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="4">
-        <v>33.323399999999999</v>
-      </c>
-      <c r="C17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4">
+        <v>9.2915700000000001</v>
+      </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
       <c r="F17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="5">
         <f t="shared" si="0"/>
-        <v>33.323399999999999</v>
+        <v>9.2915700000000001</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" si="1"/>
@@ -1169,20 +1166,20 @@
       </c>
       <c r="K17" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4">
-        <v>9.2915700000000001</v>
+        <v>8.1133500000000005</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -1193,7 +1190,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="5">
         <f t="shared" si="0"/>
-        <v>9.2915700000000001</v>
+        <v>8.1133500000000005</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" si="1"/>
@@ -1216,20 +1213,20 @@
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4">
-        <v>8.1133500000000005</v>
-      </c>
+      <c r="B19" s="4">
+        <v>8.2979000000000003</v>
+      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="3">
         <v>1</v>
       </c>
       <c r="F19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="5">
         <f t="shared" si="0"/>
-        <v>8.1133500000000005</v>
+        <v>8.2979000000000003</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" si="1"/>
@@ -1241,7 +1238,7 @@
       </c>
       <c r="K19" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="4"/>
@@ -1252,20 +1249,20 @@
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="4">
-        <v>8.2979000000000003</v>
-      </c>
-      <c r="C20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4">
+        <v>3.3992800000000001</v>
+      </c>
       <c r="D20" s="3">
         <v>1</v>
       </c>
       <c r="F20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="5">
         <f t="shared" si="0"/>
-        <v>8.2979000000000003</v>
+        <v>3.3992800000000001</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="1"/>
@@ -1277,7 +1274,7 @@
       </c>
       <c r="K20" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="4"/>
@@ -1288,20 +1285,20 @@
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4">
-        <v>3.3992800000000001</v>
-      </c>
+      <c r="B21" s="4">
+        <v>8.2979000000000003</v>
+      </c>
+      <c r="C21" s="4"/>
       <c r="D21" s="3">
         <v>1</v>
       </c>
       <c r="F21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="5">
         <f t="shared" si="0"/>
-        <v>3.3992800000000001</v>
+        <v>8.2979000000000003</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" si="1"/>
@@ -1313,7 +1310,7 @@
       </c>
       <c r="K21" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21" s="6">
         <f t="shared" si="4"/>
@@ -1324,20 +1321,20 @@
       <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="4">
-        <v>8.2979000000000003</v>
-      </c>
-      <c r="C22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4">
+        <v>5.21835</v>
+      </c>
       <c r="D22" s="3">
         <v>1</v>
       </c>
       <c r="F22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="5">
         <f t="shared" si="0"/>
-        <v>8.2979000000000003</v>
+        <v>5.21835</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" si="1"/>
@@ -1349,7 +1346,7 @@
       </c>
       <c r="K22" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" s="6">
         <f t="shared" si="4"/>
@@ -1362,7 +1359,7 @@
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
-        <v>5.21835</v>
+        <v>8.1133500000000005</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -1373,7 +1370,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="5">
         <f t="shared" si="0"/>
-        <v>5.21835</v>
+        <v>8.1133500000000005</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" si="1"/>
@@ -1396,20 +1393,20 @@
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4">
-        <v>8.1133500000000005</v>
-      </c>
+      <c r="B24" s="4">
+        <v>33.323399999999999</v>
+      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="3">
         <v>1</v>
       </c>
       <c r="F24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="5">
         <f t="shared" si="0"/>
-        <v>8.1133500000000005</v>
+        <v>33.323399999999999</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" si="1"/>
@@ -1421,7 +1418,7 @@
       </c>
       <c r="K24" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24" s="6">
         <f t="shared" si="4"/>
@@ -1432,20 +1429,20 @@
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="4">
-        <v>33.323399999999999</v>
-      </c>
-      <c r="C25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4">
+        <v>3.3992800000000001</v>
+      </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="F25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="5">
         <f t="shared" si="0"/>
-        <v>33.323399999999999</v>
+        <v>3.3992800000000001</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="1"/>
@@ -1457,7 +1454,7 @@
       </c>
       <c r="K25" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="4"/>
@@ -1468,20 +1465,18 @@
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4">
-        <v>3.3992800000000001</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
+      <c r="B26" s="4">
+        <v>3.4674999999999998</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
       <c r="F26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="5">
         <f t="shared" si="0"/>
-        <v>3.3992800000000001</v>
+        <v>3.4674999999999998</v>
       </c>
       <c r="I26" s="6">
         <f t="shared" si="1"/>
@@ -1489,11 +1484,11 @@
       </c>
       <c r="J26" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26" s="6">
         <f t="shared" si="4"/>
@@ -1504,18 +1499,18 @@
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="4">
-        <v>3.4674999999999998</v>
-      </c>
-      <c r="C27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4">
+        <v>2.7459750000000001</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="F27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="5">
         <f t="shared" si="0"/>
-        <v>3.4674999999999998</v>
+        <v>2.7459750000000001</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="1"/>
@@ -1527,7 +1522,7 @@
       </c>
       <c r="K27" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27" s="6">
         <f t="shared" si="4"/>
@@ -1540,16 +1535,18 @@
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
-        <v>2.7459750000000001</v>
-      </c>
-      <c r="D28" s="3"/>
+        <v>5.7393899999999993</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
       <c r="F28" s="3">
         <v>2</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="5">
         <f t="shared" si="0"/>
-        <v>2.7459750000000001</v>
+        <v>5.7393899999999993</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" si="1"/>
@@ -1557,7 +1554,7 @@
       </c>
       <c r="J28" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="3"/>
@@ -1574,18 +1571,16 @@
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4">
-        <v>5.7393899999999993</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
+        <v>2.9125000000000001</v>
+      </c>
+      <c r="D29" s="3"/>
       <c r="F29" s="3">
         <v>2</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="5">
         <f t="shared" si="0"/>
-        <v>5.7393899999999993</v>
+        <v>2.9125000000000001</v>
       </c>
       <c r="I29" s="6">
         <f t="shared" si="1"/>
@@ -1593,7 +1588,7 @@
       </c>
       <c r="J29" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" si="3"/>
@@ -1610,7 +1605,7 @@
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
-        <v>2.9125000000000001</v>
+        <v>2.7459750000000001</v>
       </c>
       <c r="D30" s="3"/>
       <c r="F30" s="3">
@@ -1619,7 +1614,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="5">
         <f t="shared" si="0"/>
-        <v>2.9125000000000001</v>
+        <v>2.7459750000000001</v>
       </c>
       <c r="I30" s="6">
         <f t="shared" si="1"/>
@@ -1644,16 +1639,18 @@
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
-        <v>2.7459750000000001</v>
-      </c>
-      <c r="D31" s="3"/>
+        <v>2.9125000000000001</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
       <c r="F31" s="3">
         <v>2</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="5">
         <f t="shared" si="0"/>
-        <v>2.7459750000000001</v>
+        <v>2.9125000000000001</v>
       </c>
       <c r="I31" s="6">
         <f t="shared" si="1"/>
@@ -1661,7 +1658,7 @@
       </c>
       <c r="J31" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="6">
         <f t="shared" si="3"/>
@@ -1678,18 +1675,16 @@
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
-        <v>2.9125000000000001</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
+        <v>6.6361999999999997</v>
+      </c>
+      <c r="D32" s="3"/>
       <c r="F32" s="3">
         <v>2</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="5">
         <f t="shared" si="0"/>
-        <v>2.9125000000000001</v>
+        <v>6.6361999999999997</v>
       </c>
       <c r="I32" s="6">
         <f t="shared" si="1"/>
@@ -1697,7 +1692,7 @@
       </c>
       <c r="J32" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="6">
         <f t="shared" si="3"/>
@@ -1714,16 +1709,18 @@
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
-        <v>6.6361999999999997</v>
-      </c>
-      <c r="D33" s="3"/>
+        <v>7.7179000000000002</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
       <c r="F33" s="3">
         <v>2</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="5">
         <f t="shared" si="0"/>
-        <v>6.6361999999999997</v>
+        <v>7.7179000000000002</v>
       </c>
       <c r="I33" s="6">
         <f t="shared" si="1"/>
@@ -1731,7 +1728,7 @@
       </c>
       <c r="J33" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="6">
         <f t="shared" si="3"/>
@@ -1748,7 +1745,7 @@
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
-        <v>7.7179000000000002</v>
+        <v>6.8976499999999996</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -1759,7 +1756,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="5">
         <f t="shared" si="0"/>
-        <v>7.7179000000000002</v>
+        <v>6.8976499999999996</v>
       </c>
       <c r="I34" s="6">
         <f t="shared" si="1"/>
@@ -1784,7 +1781,7 @@
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
-        <v>6.8976499999999996</v>
+        <v>7.7179000000000002</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -1795,7 +1792,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="5">
         <f t="shared" si="0"/>
-        <v>6.8976499999999996</v>
+        <v>7.7179000000000002</v>
       </c>
       <c r="I35" s="6">
         <f t="shared" si="1"/>
@@ -1820,18 +1817,16 @@
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4">
-        <v>7.7179000000000002</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
+        <v>6.6361999999999997</v>
+      </c>
+      <c r="D36" s="3"/>
       <c r="F36" s="3">
         <v>2</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="5">
         <f t="shared" si="0"/>
-        <v>7.7179000000000002</v>
+        <v>6.6361999999999997</v>
       </c>
       <c r="I36" s="6">
         <f t="shared" si="1"/>
@@ -1839,7 +1834,7 @@
       </c>
       <c r="J36" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="6">
         <f t="shared" si="3"/>
@@ -1856,16 +1851,18 @@
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4">
-        <v>6.6361999999999997</v>
-      </c>
-      <c r="D37" s="3"/>
+        <v>9.6173500000000001</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
       <c r="F37" s="3">
         <v>2</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="5">
         <f t="shared" si="0"/>
-        <v>6.6361999999999997</v>
+        <v>9.6173500000000001</v>
       </c>
       <c r="I37" s="6">
         <f t="shared" si="1"/>
@@ -1873,7 +1870,7 @@
       </c>
       <c r="J37" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="6">
         <f t="shared" si="3"/>
@@ -1926,7 +1923,7 @@
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4">
-        <v>9.6173500000000001</v>
+        <v>6.8976499999999996</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -1937,7 +1934,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="5">
         <f t="shared" si="0"/>
-        <v>9.6173500000000001</v>
+        <v>6.8976499999999996</v>
       </c>
       <c r="I39" s="6">
         <f t="shared" si="1"/>
@@ -1960,20 +1957,20 @@
       <c r="A40" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4">
-        <v>6.8976499999999996</v>
-      </c>
+      <c r="B40" s="4">
+        <v>17.530999999999999</v>
+      </c>
+      <c r="C40" s="4"/>
       <c r="D40" s="3">
         <v>1</v>
       </c>
       <c r="F40" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="5">
         <f t="shared" si="0"/>
-        <v>6.8976499999999996</v>
+        <v>17.530999999999999</v>
       </c>
       <c r="I40" s="6">
         <f t="shared" si="1"/>
@@ -1985,7 +1982,7 @@
       </c>
       <c r="K40" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L40" s="6">
         <f t="shared" si="4"/>
@@ -1997,7 +1994,7 @@
         <v>50</v>
       </c>
       <c r="B41" s="4">
-        <v>17.530999999999999</v>
+        <v>32.674809999999994</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="3">
@@ -2009,7 +2006,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="5">
         <f t="shared" si="0"/>
-        <v>17.530999999999999</v>
+        <v>32.674809999999994</v>
       </c>
       <c r="I41" s="6">
         <f t="shared" si="1"/>
@@ -2032,20 +2029,20 @@
       <c r="A42" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="4">
-        <v>32.674809999999994</v>
-      </c>
-      <c r="C42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4">
+        <v>1.9446000000000001</v>
+      </c>
       <c r="D42" s="3">
         <v>1</v>
       </c>
       <c r="F42" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="5">
         <f t="shared" si="0"/>
-        <v>32.674809999999994</v>
+        <v>1.9446000000000001</v>
       </c>
       <c r="I42" s="6">
         <f t="shared" si="1"/>
@@ -2057,7 +2054,7 @@
       </c>
       <c r="K42" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42" s="6">
         <f t="shared" si="4"/>
@@ -2068,20 +2065,18 @@
       <c r="A43" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4">
-        <v>1.9446000000000001</v>
-      </c>
-      <c r="D43" s="3">
-        <v>1</v>
-      </c>
+      <c r="B43" s="4">
+        <v>2.1283750000000001</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="3"/>
       <c r="F43" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="5">
         <f t="shared" si="0"/>
-        <v>1.9446000000000001</v>
+        <v>2.1283750000000001</v>
       </c>
       <c r="I43" s="6">
         <f t="shared" si="1"/>
@@ -2089,11 +2084,11 @@
       </c>
       <c r="J43" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L43" s="6">
         <f t="shared" si="4"/>
@@ -2105,21 +2100,25 @@
         <v>53</v>
       </c>
       <c r="B44" s="4">
-        <v>2.1283750000000001</v>
-      </c>
-      <c r="C44" s="4"/>
+        <v>8.8796999999999997</v>
+      </c>
+      <c r="C44" s="4">
+        <v>7.5849000000000002</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="F44" s="3">
         <v>1</v>
       </c>
-      <c r="G44" s="3"/>
+      <c r="G44" s="3">
+        <v>2</v>
+      </c>
       <c r="H44" s="5">
         <f t="shared" si="0"/>
-        <v>2.1283750000000001</v>
+        <v>16.464600000000001</v>
       </c>
       <c r="I44" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" s="6">
         <f t="shared" si="2"/>
@@ -2127,11 +2126,11 @@
       </c>
       <c r="K44" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L44" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2139,25 +2138,21 @@
         <v>54</v>
       </c>
       <c r="B45" s="4">
-        <v>8.8796999999999997</v>
-      </c>
-      <c r="C45" s="4">
-        <v>7.5849000000000002</v>
-      </c>
+        <v>5.4827500000000002</v>
+      </c>
+      <c r="C45" s="4"/>
       <c r="D45" s="3"/>
       <c r="F45" s="3">
         <v>1</v>
       </c>
-      <c r="G45" s="3">
-        <v>2</v>
-      </c>
+      <c r="G45" s="3"/>
       <c r="H45" s="5">
         <f t="shared" si="0"/>
-        <v>16.464600000000001</v>
+        <v>5.4827500000000002</v>
       </c>
       <c r="I45" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" s="6">
         <f t="shared" si="2"/>
@@ -2165,11 +2160,11 @@
       </c>
       <c r="K45" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L45" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2177,7 +2172,7 @@
         <v>55</v>
       </c>
       <c r="B46" s="4">
-        <v>5.4827500000000002</v>
+        <v>24.641690000000001</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="3"/>
@@ -2187,7 +2182,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="5">
         <f t="shared" si="0"/>
-        <v>5.4827500000000002</v>
+        <v>24.641690000000001</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
@@ -2211,7 +2206,7 @@
         <v>56</v>
       </c>
       <c r="B47" s="4">
-        <v>24.641690000000001</v>
+        <v>26.595600000000001</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="3"/>
@@ -2221,7 +2216,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="5">
         <f t="shared" si="0"/>
-        <v>24.641690000000001</v>
+        <v>26.595600000000001</v>
       </c>
       <c r="I47" s="6">
         <f t="shared" si="1"/>
@@ -2245,7 +2240,7 @@
         <v>57</v>
       </c>
       <c r="B48" s="4">
-        <v>26.595600000000001</v>
+        <v>28.8416</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="3"/>
@@ -2255,7 +2250,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="5">
         <f t="shared" si="0"/>
-        <v>26.595600000000001</v>
+        <v>28.8416</v>
       </c>
       <c r="I48" s="6">
         <f t="shared" si="1"/>
@@ -2279,7 +2274,7 @@
         <v>58</v>
       </c>
       <c r="B49" s="4">
-        <v>28.8416</v>
+        <v>2.7665500000000001</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="3"/>
@@ -2289,7 +2284,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="5">
         <f t="shared" si="0"/>
-        <v>28.8416</v>
+        <v>2.7665500000000001</v>
       </c>
       <c r="I49" s="6">
         <f t="shared" si="1"/>
@@ -2313,7 +2308,7 @@
         <v>59</v>
       </c>
       <c r="B50" s="4">
-        <v>26.826000000000001</v>
+        <v>26.595600000000001</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="3"/>
@@ -2323,7 +2318,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="5">
         <f t="shared" si="0"/>
-        <v>26.826000000000001</v>
+        <v>26.595600000000001</v>
       </c>
       <c r="I50" s="6">
         <f t="shared" si="1"/>
@@ -2346,18 +2341,18 @@
       <c r="A51" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="4">
-        <v>26.826000000000001</v>
-      </c>
-      <c r="C51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4">
+        <v>0.97684000000000004</v>
+      </c>
       <c r="D51" s="3"/>
       <c r="F51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="5">
         <f t="shared" si="0"/>
-        <v>26.826000000000001</v>
+        <v>0.97684000000000004</v>
       </c>
       <c r="I51" s="6">
         <f t="shared" si="1"/>
@@ -2369,7 +2364,7 @@
       </c>
       <c r="K51" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L51" s="6">
         <f t="shared" si="4"/>
@@ -2381,21 +2376,25 @@
         <v>61</v>
       </c>
       <c r="B52" s="4">
-        <v>2.7665500000000001</v>
-      </c>
-      <c r="C52" s="4"/>
+        <v>1.8894500000000001</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0.76963999999999999</v>
+      </c>
       <c r="D52" s="3"/>
       <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1</v>
+      </c>
       <c r="H52" s="5">
         <f t="shared" si="0"/>
-        <v>2.7665500000000001</v>
+        <v>2.65909</v>
       </c>
       <c r="I52" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" s="6">
         <f t="shared" si="2"/>
@@ -2414,18 +2413,18 @@
       <c r="A53" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="4">
-        <v>26.595600000000001</v>
-      </c>
-      <c r="C53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4">
+        <v>2.9621200000000001</v>
+      </c>
       <c r="D53" s="3"/>
       <c r="F53" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="5">
         <f t="shared" si="0"/>
-        <v>26.595600000000001</v>
+        <v>2.9621200000000001</v>
       </c>
       <c r="I53" s="6">
         <f t="shared" si="1"/>
@@ -2437,7 +2436,7 @@
       </c>
       <c r="K53" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L53" s="6">
         <f t="shared" si="4"/>
@@ -2448,22 +2447,26 @@
       <c r="A54" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="4"/>
+      <c r="B54" s="4">
+        <v>11.119145</v>
+      </c>
       <c r="C54" s="4">
-        <v>0.97684000000000004</v>
+        <v>9.3242449999999995</v>
       </c>
       <c r="D54" s="3"/>
       <c r="F54" s="3">
-        <v>2</v>
-      </c>
-      <c r="G54" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>2</v>
+      </c>
       <c r="H54" s="5">
         <f t="shared" si="0"/>
-        <v>0.97684000000000004</v>
+        <v>20.443390000000001</v>
       </c>
       <c r="I54" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" s="6">
         <f t="shared" si="2"/>
@@ -2475,7 +2478,7 @@
       </c>
       <c r="L54" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2483,21 +2486,21 @@
         <v>64</v>
       </c>
       <c r="B55" s="4">
-        <v>1.8894500000000001</v>
+        <v>11.119145</v>
       </c>
       <c r="C55" s="4">
-        <v>0.76963999999999999</v>
+        <v>9.3242449999999995</v>
       </c>
       <c r="D55" s="3"/>
       <c r="F55" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" s="5">
         <f t="shared" si="0"/>
-        <v>2.65909</v>
+        <v>20.443390000000001</v>
       </c>
       <c r="I55" s="6">
         <f t="shared" si="1"/>
@@ -2509,11 +2512,11 @@
       </c>
       <c r="K55" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L55" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2522,7 +2525,7 @@
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4">
-        <v>2.9621200000000001</v>
+        <v>7.7475549999999993</v>
       </c>
       <c r="D56" s="3"/>
       <c r="F56" s="3">
@@ -2531,7 +2534,7 @@
       <c r="G56" s="3"/>
       <c r="H56" s="5">
         <f t="shared" si="0"/>
-        <v>2.9621200000000001</v>
+        <v>7.7475549999999993</v>
       </c>
       <c r="I56" s="6">
         <f t="shared" si="1"/>
@@ -2555,10 +2558,10 @@
         <v>66</v>
       </c>
       <c r="B57" s="4">
-        <v>11.119145</v>
+        <v>2.3997299999999999</v>
       </c>
       <c r="C57" s="4">
-        <v>9.3242449999999995</v>
+        <v>4.4859499999999999</v>
       </c>
       <c r="D57" s="3"/>
       <c r="F57" s="3">
@@ -2569,7 +2572,7 @@
       </c>
       <c r="H57" s="5">
         <f t="shared" si="0"/>
-        <v>20.443390000000001</v>
+        <v>6.8856799999999998</v>
       </c>
       <c r="I57" s="6">
         <f t="shared" si="1"/>
@@ -2593,55 +2596,55 @@
         <v>67</v>
       </c>
       <c r="B58" s="4">
-        <v>11.119145</v>
-      </c>
-      <c r="C58" s="4">
-        <v>9.3242449999999995</v>
-      </c>
-      <c r="D58" s="3"/>
+        <v>14.928884999999999</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
       <c r="F58" s="3">
         <v>1</v>
       </c>
-      <c r="G58" s="3">
-        <v>2</v>
-      </c>
+      <c r="G58" s="3"/>
       <c r="H58" s="5">
         <f t="shared" si="0"/>
-        <v>20.443390000000001</v>
+        <v>14.928884999999999</v>
       </c>
       <c r="I58" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L58" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4">
-        <v>7.7475549999999993</v>
-      </c>
-      <c r="D59" s="3"/>
+      <c r="B59" s="4">
+        <v>9.4292499999999997</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
       <c r="F59" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="5">
         <f t="shared" si="0"/>
-        <v>7.7475549999999993</v>
+        <v>9.4292499999999997</v>
       </c>
       <c r="I59" s="6">
         <f t="shared" si="1"/>
@@ -2649,11 +2652,11 @@
       </c>
       <c r="J59" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L59" s="6">
         <f t="shared" si="4"/>
@@ -2664,26 +2667,22 @@
       <c r="A60" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="4">
-        <v>2.3997299999999999</v>
-      </c>
+      <c r="B60" s="4"/>
       <c r="C60" s="4">
-        <v>4.4859499999999999</v>
+        <v>14.712494999999999</v>
       </c>
       <c r="D60" s="3"/>
       <c r="F60" s="3">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G60" s="3"/>
       <c r="H60" s="5">
         <f t="shared" si="0"/>
-        <v>6.8856799999999998</v>
+        <v>14.712494999999999</v>
       </c>
       <c r="I60" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" s="6">
         <f t="shared" si="2"/>
@@ -2695,27 +2694,25 @@
       </c>
       <c r="L60" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B61" s="4">
-        <v>14.928884999999999</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="3">
-        <v>1</v>
-      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4">
+        <v>1.9446000000000001</v>
+      </c>
+      <c r="D61" s="3"/>
       <c r="F61" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="5">
         <f t="shared" si="0"/>
-        <v>14.928884999999999</v>
+        <v>1.9446000000000001</v>
       </c>
       <c r="I61" s="6">
         <f t="shared" si="1"/>
@@ -2723,11 +2720,11 @@
       </c>
       <c r="J61" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L61" s="6">
         <f t="shared" si="4"/>
@@ -2739,19 +2736,17 @@
         <v>71</v>
       </c>
       <c r="B62" s="4">
-        <v>9.4292499999999997</v>
+        <v>8.7520000000000007</v>
       </c>
       <c r="C62" s="4"/>
-      <c r="D62" s="3">
-        <v>1</v>
-      </c>
+      <c r="D62" s="3"/>
       <c r="F62" s="3">
         <v>1</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="5">
         <f t="shared" si="0"/>
-        <v>9.4292499999999997</v>
+        <v>8.7520000000000007</v>
       </c>
       <c r="I62" s="6">
         <f t="shared" si="1"/>
@@ -2759,7 +2754,7 @@
       </c>
       <c r="J62" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="6">
         <f t="shared" si="3"/>
@@ -2774,18 +2769,18 @@
       <c r="A63" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4">
-        <v>14.712494999999999</v>
-      </c>
+      <c r="B63" s="4">
+        <v>4.82843</v>
+      </c>
+      <c r="C63" s="4"/>
       <c r="D63" s="3"/>
       <c r="F63" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="5">
         <f t="shared" si="0"/>
-        <v>14.712494999999999</v>
+        <v>4.82843</v>
       </c>
       <c r="I63" s="6">
         <f t="shared" si="1"/>
@@ -2797,7 +2792,7 @@
       </c>
       <c r="K63" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L63" s="6">
         <f t="shared" si="4"/>
@@ -2808,18 +2803,18 @@
       <c r="A64" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4">
-        <v>1.9446000000000001</v>
-      </c>
+      <c r="B64" s="4">
+        <v>4.5644499999999999</v>
+      </c>
+      <c r="C64" s="4"/>
       <c r="D64" s="3"/>
       <c r="F64" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="5">
         <f t="shared" si="0"/>
-        <v>1.9446000000000001</v>
+        <v>4.5644499999999999</v>
       </c>
       <c r="I64" s="6">
         <f t="shared" si="1"/>
@@ -2831,7 +2826,7 @@
       </c>
       <c r="K64" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L64" s="6">
         <f t="shared" si="4"/>
@@ -2843,21 +2838,25 @@
         <v>74</v>
       </c>
       <c r="B65" s="4">
-        <v>8.7520000000000007</v>
-      </c>
-      <c r="C65" s="4"/>
+        <v>1.5787599999999999</v>
+      </c>
+      <c r="C65" s="4">
+        <v>15.547134999999999</v>
+      </c>
       <c r="D65" s="3"/>
       <c r="F65" s="3">
-        <v>1</v>
-      </c>
-      <c r="G65" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G65" s="3">
+        <v>1</v>
+      </c>
       <c r="H65" s="5">
         <f t="shared" si="0"/>
-        <v>8.7520000000000007</v>
+        <v>17.125895</v>
       </c>
       <c r="I65" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J65" s="6">
         <f t="shared" si="2"/>
@@ -2877,7 +2876,7 @@
         <v>75</v>
       </c>
       <c r="B66" s="4">
-        <v>4.82843</v>
+        <v>2.1283750000000001</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="3"/>
@@ -2887,7 +2886,7 @@
       <c r="G66" s="3"/>
       <c r="H66" s="5">
         <f t="shared" si="0"/>
-        <v>4.82843</v>
+        <v>2.1283750000000001</v>
       </c>
       <c r="I66" s="6">
         <f t="shared" si="1"/>
@@ -2911,7 +2910,7 @@
         <v>76</v>
       </c>
       <c r="B67" s="4">
-        <v>4.5644499999999999</v>
+        <v>0.93293000000000004</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="3"/>
@@ -2921,7 +2920,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="5">
         <f t="shared" si="0"/>
-        <v>4.5644499999999999</v>
+        <v>0.93293000000000004</v>
       </c>
       <c r="I67" s="6">
         <f t="shared" si="1"/>
@@ -2945,25 +2944,21 @@
         <v>77</v>
       </c>
       <c r="B68" s="4">
-        <v>1.5787599999999999</v>
-      </c>
-      <c r="C68" s="4">
-        <v>15.547134999999999</v>
-      </c>
+        <v>1.8118000000000001</v>
+      </c>
+      <c r="C68" s="4"/>
       <c r="D68" s="3"/>
       <c r="F68" s="3">
-        <v>2</v>
-      </c>
-      <c r="G68" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G68" s="3"/>
       <c r="H68" s="5">
         <f t="shared" si="0"/>
-        <v>17.125895</v>
+        <v>1.8118000000000001</v>
       </c>
       <c r="I68" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" s="6">
         <f t="shared" si="2"/>
@@ -2983,7 +2978,7 @@
         <v>78</v>
       </c>
       <c r="B69" s="4">
-        <v>2.1283750000000001</v>
+        <v>1.8118000000000001</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="3"/>
@@ -2993,7 +2988,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="5">
         <f t="shared" si="0"/>
-        <v>2.1283750000000001</v>
+        <v>1.8118000000000001</v>
       </c>
       <c r="I69" s="6">
         <f t="shared" si="1"/>
@@ -3017,33 +3012,39 @@
         <v>79</v>
       </c>
       <c r="B70" s="4">
-        <v>0.93293000000000004</v>
-      </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="3"/>
+        <v>6.9123549999999998</v>
+      </c>
+      <c r="C70" s="4">
+        <v>5.79</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1</v>
+      </c>
       <c r="F70" s="3">
         <v>1</v>
       </c>
-      <c r="G70" s="3"/>
+      <c r="G70" s="3">
+        <v>2</v>
+      </c>
       <c r="H70" s="5">
         <f t="shared" si="0"/>
-        <v>0.93293000000000004</v>
+        <v>12.702355000000001</v>
       </c>
       <c r="I70" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L70" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3051,148 +3052,52 @@
         <v>80</v>
       </c>
       <c r="B71" s="4">
-        <v>1.8118000000000001</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="3"/>
+        <v>6.9123549999999998</v>
+      </c>
+      <c r="C71" s="4">
+        <v>5.79</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1</v>
+      </c>
       <c r="F71" s="3">
         <v>1</v>
       </c>
-      <c r="G71" s="3"/>
+      <c r="G71" s="3">
+        <v>2</v>
+      </c>
       <c r="H71" s="5">
         <f t="shared" si="0"/>
-        <v>1.8118000000000001</v>
+        <v>12.702355000000001</v>
       </c>
       <c r="I71" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L71" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B72" s="4">
-        <v>1.8118000000000001</v>
-      </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="3"/>
-      <c r="F72" s="3">
-        <v>1</v>
-      </c>
+      <c r="F72" s="3"/>
       <c r="G72" s="3"/>
-      <c r="H72" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8118000000000001</v>
-      </c>
-      <c r="I72" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J72" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K72" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L72" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
     </row>
     <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B73" s="4">
-        <v>6.9123549999999998</v>
-      </c>
-      <c r="C73" s="4">
-        <v>5.79</v>
-      </c>
-      <c r="D73" s="3">
-        <v>1</v>
-      </c>
-      <c r="F73" s="3">
-        <v>1</v>
-      </c>
-      <c r="G73" s="3">
-        <v>2</v>
-      </c>
-      <c r="H73" s="5">
-        <f t="shared" si="0"/>
-        <v>12.702355000000001</v>
-      </c>
-      <c r="I73" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J73" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K73" s="6">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L73" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
     </row>
     <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B74" s="4">
-        <v>6.9123549999999998</v>
-      </c>
-      <c r="C74" s="4">
-        <v>5.79</v>
-      </c>
-      <c r="D74" s="3">
-        <v>1</v>
-      </c>
-      <c r="F74" s="3">
-        <v>1</v>
-      </c>
-      <c r="G74" s="3">
-        <v>2</v>
-      </c>
-      <c r="H74" s="5">
-        <f t="shared" si="0"/>
-        <v>12.702355000000001</v>
-      </c>
-      <c r="I74" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J74" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K74" s="6">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L74" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F75" s="3"/>
@@ -6854,20 +6759,8 @@
       <c r="F989" s="3"/>
       <c r="G989" s="3"/>
     </row>
-    <row r="990" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F990" s="3"/>
-      <c r="G990" s="3"/>
-    </row>
-    <row r="991" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F991" s="3"/>
-      <c r="G991" s="3"/>
-    </row>
-    <row r="992" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F992" s="3"/>
-      <c r="G992" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:L74" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L71" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
